--- a/input_data/USA/Filter_2002_ExtAgg.xlsx
+++ b/input_data/USA/Filter_2002_ExtAgg.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5FFC46-8E04-4FCB-8D67-7BA4519A21C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F236253-0516-4924-AC59-7FE4D0E2F00C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12228" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12228" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
-    <sheet name="filter" sheetId="1" r:id="rId2"/>
+    <sheet name="mass_&amp;_aggreg" sheetId="1" r:id="rId2"/>
+    <sheet name="exio_usa" sheetId="3" r:id="rId3"/>
+    <sheet name="yield" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -510,8 +512,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{680FFD23-AB79-4757-B36A-622C65D09944}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ zero cells are filled in code and assumed with 100% yield; for USA, we only use yield values for basic materials going to interemdiate/final products from Exiobase yield and assume final product - final product interactions with no losses</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="950">
   <si>
     <t>Oilseed farming</t>
   </si>
@@ -3081,9 +3117,6 @@
     <t>S00900</t>
   </si>
   <si>
-    <t>The tab 'filter' contains the overarching filter matrix which provides settings for three operations:</t>
-  </si>
-  <si>
     <t>Raw_materials</t>
   </si>
   <si>
@@ -3114,9 +3147,6 @@
     <t>Explanations columns C-H:</t>
   </si>
   <si>
-    <t>depending on the filter matrix scenario these sector rows + columns are set zero and thus neither output nor receive anything</t>
-  </si>
-  <si>
     <t>these sectors are the extension sectors; in WIO-MFA and Ghosh-IO AMC these 'material sectors' (column D) do not receive input from 'products sectors' (column F-H)</t>
   </si>
   <si>
@@ -3175,6 +3205,198 @@
   </si>
   <si>
     <t>Secondary smelting and alloying of aluminum+Alumina refining and primary aluminum production+Aluminum product manufacturing from purchased aluminum</t>
+  </si>
+  <si>
+    <t>The tab 'mass_&amp;_aggreg filter' contains the overarching filter matrix which provides settings for three operations:</t>
+  </si>
+  <si>
+    <t>depending on the mass filter scenario these sector rows + columns are set zero and thus neither output nor receive anything</t>
+  </si>
+  <si>
+    <t>The tab 'yield' contains the yield matrix for WIO-MFA (all empty cells are set to 100% yield in code)</t>
+  </si>
+  <si>
+    <t>Match Exiobase transaction yields to USA table sectors</t>
+  </si>
+  <si>
+    <t>EXIOBASE yield table (cells highlighted in blue are used)</t>
+  </si>
+  <si>
+    <t>p17</t>
+  </si>
+  <si>
+    <t>p18</t>
+  </si>
+  <si>
+    <t>p20</t>
+  </si>
+  <si>
+    <t>p21.1</t>
+  </si>
+  <si>
+    <t>p28</t>
+  </si>
+  <si>
+    <t>p29</t>
+  </si>
+  <si>
+    <t>p30</t>
+  </si>
+  <si>
+    <t>p31</t>
+  </si>
+  <si>
+    <t>p32</t>
+  </si>
+  <si>
+    <t>p33</t>
+  </si>
+  <si>
+    <t>p34</t>
+  </si>
+  <si>
+    <t>p35</t>
+  </si>
+  <si>
+    <t>p36</t>
+  </si>
+  <si>
+    <t>p45</t>
+  </si>
+  <si>
+    <t>Textiles (17)</t>
+  </si>
+  <si>
+    <t>Wearing apparel; furs (18)</t>
+  </si>
+  <si>
+    <t>Wood and products of wood and cork (except furniture); articles of straw and plaiting materials (20)</t>
+  </si>
+  <si>
+    <t>Pulp</t>
+  </si>
+  <si>
+    <t>Fabricated metal products, except machinery and equipment (28)</t>
+  </si>
+  <si>
+    <t>Machinery and equipment n.e.c. (29)</t>
+  </si>
+  <si>
+    <t>Office machinery and computers (30)</t>
+  </si>
+  <si>
+    <t>Electrical machinery and apparatus n.e.c. (31)</t>
+  </si>
+  <si>
+    <t>Radio, television and communication equipment and apparatus (32)</t>
+  </si>
+  <si>
+    <t>Medical, precision and optical instruments, watches and clocks (33)</t>
+  </si>
+  <si>
+    <t>Motor vehicles, trailers and semi-trailers (34)</t>
+  </si>
+  <si>
+    <t>Other transport equipment (35)</t>
+  </si>
+  <si>
+    <t>Furniture; other manufactured goods n.e.c. (36)</t>
+  </si>
+  <si>
+    <t>Construction work (45)</t>
+  </si>
+  <si>
+    <t>p24.a</t>
+  </si>
+  <si>
+    <t>Plastics, basic</t>
+  </si>
+  <si>
+    <t>p25</t>
+  </si>
+  <si>
+    <t>Rubber and plastic products (25)</t>
+  </si>
+  <si>
+    <t>p26.a</t>
+  </si>
+  <si>
+    <t>Glass and glass products</t>
+  </si>
+  <si>
+    <t>p26.b</t>
+  </si>
+  <si>
+    <t>Ceramic goods</t>
+  </si>
+  <si>
+    <t>p27.a</t>
+  </si>
+  <si>
+    <t>Basic iron and steel and of ferro-alloys and first products thereof</t>
+  </si>
+  <si>
+    <t>p27.41</t>
+  </si>
+  <si>
+    <t>Precious metals</t>
+  </si>
+  <si>
+    <t>p27.42</t>
+  </si>
+  <si>
+    <t>Aluminium and aluminium products</t>
+  </si>
+  <si>
+    <t>p27.43</t>
+  </si>
+  <si>
+    <t>Lead, zinc and tin and products thereof</t>
+  </si>
+  <si>
+    <t>p27.44</t>
+  </si>
+  <si>
+    <t>Copper products</t>
+  </si>
+  <si>
+    <t>p27.45</t>
+  </si>
+  <si>
+    <t>Other non-ferrous metal products</t>
+  </si>
+  <si>
+    <t>p27.5</t>
+  </si>
+  <si>
+    <t>Foundry work services</t>
+  </si>
+  <si>
+    <t>USA yield table</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Furniture &amp; other manuf. goods</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Other buildungs</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Plastics</t>
   </si>
 </sst>
 </file>
@@ -3185,7 +3407,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3221,8 +3443,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3349,8 +3587,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3453,12 +3697,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3523,6 +3847,45 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="22" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="22" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="22" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="22" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -3811,45 +4174,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A54268-861F-4043-98F0-4D98CA0CE053}">
-  <dimension ref="B2:N16"/>
+  <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D10" t="s">
-        <v>867</v>
+        <v>887</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -3857,7 +4220,7 @@
         <v>282</v>
       </c>
       <c r="D11" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -3865,7 +4228,7 @@
         <v>295</v>
       </c>
       <c r="D12" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
@@ -3873,7 +4236,7 @@
         <v>294</v>
       </c>
       <c r="D13" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
@@ -3881,7 +4244,7 @@
         <v>293</v>
       </c>
       <c r="D14" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="15" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3894,6 +4257,11 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>888</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3904,11 +4272,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB425"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C360" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C297" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D168" sqref="D168:D171"/>
+      <selection pane="bottomRight" activeCell="A168" sqref="A168:B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3925,7 +4293,7 @@
         <v>287</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J1" s="41"/>
       <c r="K1" s="41"/>
@@ -3947,13 +4315,13 @@
     </row>
     <row r="2" spans="1:28" ht="128.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>282</v>
@@ -3965,7 +4333,7 @@
         <v>294</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>293</v>
@@ -3977,10 +4345,10 @@
         <v>301</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>438</v>
@@ -4025,10 +4393,10 @@
         <v>288</v>
       </c>
       <c r="AA2" s="39" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AB2" s="39" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
@@ -4051,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H3" s="12">
         <v>0</v>
@@ -4579,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -4667,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -4755,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -4931,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -5283,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -5371,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -5723,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -5899,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -5987,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -6163,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -7395,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
@@ -7483,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
@@ -11619,7 +11987,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -12059,7 +12427,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -12305,10 +12673,10 @@
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A97" s="40" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -12323,7 +12691,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
@@ -12411,7 +12779,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
@@ -12499,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
@@ -12587,7 +12955,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -12851,7 +13219,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
@@ -13027,7 +13395,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H105" s="3">
         <v>0</v>
@@ -13097,10 +13465,10 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A106" s="40" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -13819,7 +14187,7 @@
         <v>1</v>
       </c>
       <c r="G114" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H114" s="3">
         <v>0</v>
@@ -13977,10 +14345,10 @@
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A116" s="40" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -13995,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
@@ -14259,7 +14627,7 @@
         <v>1</v>
       </c>
       <c r="G119" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H119" s="3">
         <v>0</v>
@@ -14435,7 +14803,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H121" s="3">
         <v>0</v>
@@ -14611,7 +14979,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H123" s="3">
         <v>0</v>
@@ -14857,10 +15225,10 @@
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A126" s="40" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -14875,7 +15243,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
@@ -14963,7 +15331,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
@@ -15227,7 +15595,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
@@ -15403,7 +15771,7 @@
         <v>1</v>
       </c>
       <c r="G132" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
@@ -15491,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="G133" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H133" s="3">
         <v>0</v>
@@ -15931,7 +16299,7 @@
         <v>1</v>
       </c>
       <c r="G138" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H138" s="3">
         <v>0</v>
@@ -16195,7 +16563,7 @@
         <v>1</v>
       </c>
       <c r="G141" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H141" s="3">
         <v>0</v>
@@ -16283,7 +16651,7 @@
         <v>1</v>
       </c>
       <c r="G142" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H142" s="3">
         <v>0</v>
@@ -16371,7 +16739,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H143" s="3">
         <v>0</v>
@@ -16635,7 +17003,7 @@
         <v>0</v>
       </c>
       <c r="G146" s="32" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H146" s="3">
         <v>1</v>
@@ -17163,7 +17531,7 @@
         <v>0</v>
       </c>
       <c r="G152" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H152" s="3">
         <v>0</v>
@@ -17251,7 +17619,7 @@
         <v>1</v>
       </c>
       <c r="G153" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H153" s="3">
         <v>0</v>
@@ -17339,7 +17707,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H154" s="3">
         <v>0</v>
@@ -17691,7 +18059,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H158" s="3">
         <v>0</v>
@@ -17779,7 +18147,7 @@
         <v>1</v>
       </c>
       <c r="G159" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H159" s="3">
         <v>0</v>
@@ -17867,7 +18235,7 @@
         <v>1</v>
       </c>
       <c r="G160" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H160" s="3">
         <v>0</v>
@@ -18395,7 +18763,7 @@
         <v>1</v>
       </c>
       <c r="G166" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H166" s="3">
         <v>0</v>
@@ -18483,7 +18851,7 @@
         <v>1</v>
       </c>
       <c r="G167" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H167" s="3">
         <v>0</v>
@@ -18553,10 +18921,10 @@
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A168" s="40" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B168" s="40" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -18641,10 +19009,10 @@
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A169" s="40" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B169" s="40" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -18659,7 +19027,7 @@
         <v>0</v>
       </c>
       <c r="G169" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H169" s="3">
         <v>0</v>
@@ -18747,7 +19115,7 @@
         <v>0</v>
       </c>
       <c r="G170" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H170" s="3">
         <v>0</v>
@@ -18835,7 +19203,7 @@
         <v>0</v>
       </c>
       <c r="G171" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H171" s="3">
         <v>0</v>
@@ -18923,7 +19291,7 @@
         <v>1</v>
       </c>
       <c r="G172" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H172" s="3">
         <v>0</v>
@@ -19099,7 +19467,7 @@
         <v>1</v>
       </c>
       <c r="G174" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H174" s="3">
         <v>0</v>
@@ -19275,7 +19643,7 @@
         <v>1</v>
       </c>
       <c r="G176" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H176" s="3">
         <v>0</v>
@@ -19363,7 +19731,7 @@
         <v>1</v>
       </c>
       <c r="G177" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H177" s="3">
         <v>0</v>
@@ -20507,7 +20875,7 @@
         <v>1</v>
       </c>
       <c r="G190" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H190" s="3">
         <v>0</v>
@@ -20595,7 +20963,7 @@
         <v>1</v>
       </c>
       <c r="G191" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H191" s="3">
         <v>0</v>
@@ -20771,7 +21139,7 @@
         <v>1</v>
       </c>
       <c r="G193" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H193" s="3">
         <v>0</v>
@@ -22619,7 +22987,7 @@
         <v>1</v>
       </c>
       <c r="G214" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H214" s="3">
         <v>0</v>
@@ -22971,7 +23339,7 @@
         <v>1</v>
       </c>
       <c r="G218" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H218" s="3">
         <v>0</v>
@@ -23059,7 +23427,7 @@
         <v>1</v>
       </c>
       <c r="G219" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H219" s="3">
         <v>0</v>
@@ -24555,7 +24923,7 @@
         <v>1</v>
       </c>
       <c r="G236" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H236" s="3">
         <v>0</v>
@@ -24643,7 +25011,7 @@
         <v>1</v>
       </c>
       <c r="G237" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H237" s="3">
         <v>0</v>
@@ -24731,7 +25099,7 @@
         <v>1</v>
       </c>
       <c r="G238" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H238" s="3">
         <v>0</v>
@@ -24819,7 +25187,7 @@
         <v>1</v>
       </c>
       <c r="G239" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H239" s="3">
         <v>0</v>
@@ -25083,7 +25451,7 @@
         <v>1</v>
       </c>
       <c r="G242" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H242" s="3">
         <v>0</v>
@@ -25347,7 +25715,7 @@
         <v>1</v>
       </c>
       <c r="G245" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H245" s="3">
         <v>0</v>
@@ -26051,7 +26419,7 @@
         <v>1</v>
       </c>
       <c r="G253" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H253" s="3">
         <v>0</v>
@@ -27459,7 +27827,7 @@
         <v>1</v>
       </c>
       <c r="G269" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H269" s="3">
         <v>0</v>
@@ -28515,7 +28883,7 @@
         <v>1</v>
       </c>
       <c r="G281" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H281" s="3">
         <v>0</v>
@@ -30627,7 +30995,7 @@
         <v>1</v>
       </c>
       <c r="G305" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H305" s="3">
         <v>0</v>
@@ -33267,7 +33635,7 @@
         <v>0</v>
       </c>
       <c r="G335" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H335" s="3">
         <v>0</v>
@@ -33355,7 +33723,7 @@
         <v>0</v>
       </c>
       <c r="G336" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H336" s="3">
         <v>0</v>
@@ -33619,7 +33987,7 @@
         <v>0</v>
       </c>
       <c r="G339" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H339" s="3">
         <v>0</v>
@@ -34059,7 +34427,7 @@
         <v>0</v>
       </c>
       <c r="G344" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H344" s="3">
         <v>0</v>
@@ -34763,7 +35131,7 @@
         <v>0</v>
       </c>
       <c r="G352" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H352" s="3">
         <v>0</v>
@@ -35379,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="G359" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H359" s="3">
         <v>0</v>
@@ -35467,7 +35835,7 @@
         <v>0</v>
       </c>
       <c r="G360" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H360" s="3">
         <v>0</v>
@@ -35555,7 +35923,7 @@
         <v>0</v>
       </c>
       <c r="G361" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H361" s="3">
         <v>0</v>
@@ -35995,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="G366" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H366" s="3">
         <v>0</v>
@@ -36083,7 +36451,7 @@
         <v>0</v>
       </c>
       <c r="G367" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H367" s="3">
         <v>0</v>
@@ -36171,7 +36539,7 @@
         <v>0</v>
       </c>
       <c r="G368" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H368" s="3">
         <v>0</v>
@@ -36259,7 +36627,7 @@
         <v>0</v>
       </c>
       <c r="G369" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H369" s="3">
         <v>0</v>
@@ -39251,7 +39619,7 @@
         <v>0</v>
       </c>
       <c r="G403" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H403" s="3">
         <v>0</v>
@@ -40651,7 +41019,7 @@
         <v>0</v>
       </c>
       <c r="G419" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H419" s="3">
         <v>0</v>
@@ -40739,7 +41107,7 @@
         <v>0</v>
       </c>
       <c r="G420" s="31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H420" s="3">
         <v>0</v>
@@ -41605,4 +41973,4225 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BF9E16-534F-4AA2-AF69-0D132E9BC96F}">
+  <dimension ref="A2:U55"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="20" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="42" t="s">
+        <v>889</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="43" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D6" s="44" t="s">
+        <v>891</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>892</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>893</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>894</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>895</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>896</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>897</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>898</v>
+      </c>
+      <c r="L6" s="44" t="s">
+        <v>899</v>
+      </c>
+      <c r="M6" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="N6" s="44" t="s">
+        <v>901</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>902</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>903</v>
+      </c>
+      <c r="Q6" s="45" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D7" s="44" t="s">
+        <v>905</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>906</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>907</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>908</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>909</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>910</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>911</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>912</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>913</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>914</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>915</v>
+      </c>
+      <c r="O7" s="44" t="s">
+        <v>916</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>917</v>
+      </c>
+      <c r="Q7" s="45" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="45" t="s">
+        <v>893</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>907</v>
+      </c>
+      <c r="D8" s="47">
+        <v>0</v>
+      </c>
+      <c r="E8" s="48">
+        <v>0</v>
+      </c>
+      <c r="F8" s="48">
+        <v>0.85</v>
+      </c>
+      <c r="G8" s="48">
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="48">
+        <v>0</v>
+      </c>
+      <c r="I8" s="48">
+        <v>0</v>
+      </c>
+      <c r="J8" s="48">
+        <v>0</v>
+      </c>
+      <c r="K8" s="48">
+        <v>0</v>
+      </c>
+      <c r="L8" s="48">
+        <v>0</v>
+      </c>
+      <c r="M8" s="48">
+        <v>0</v>
+      </c>
+      <c r="N8" s="48">
+        <v>0</v>
+      </c>
+      <c r="O8" s="48">
+        <v>0</v>
+      </c>
+      <c r="P8" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="Q8" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="45" t="s">
+        <v>919</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>920</v>
+      </c>
+      <c r="D9" s="52">
+        <v>0.85</v>
+      </c>
+      <c r="E9" s="53">
+        <v>0.85</v>
+      </c>
+      <c r="F9" s="53">
+        <v>0</v>
+      </c>
+      <c r="G9" s="53">
+        <v>0</v>
+      </c>
+      <c r="H9" s="53">
+        <v>0</v>
+      </c>
+      <c r="I9" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="L9" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="M9" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="N9" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="O9" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="P9" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="Q9" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="45" t="s">
+        <v>921</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>922</v>
+      </c>
+      <c r="D10" s="56">
+        <v>0</v>
+      </c>
+      <c r="E10" s="53">
+        <v>0</v>
+      </c>
+      <c r="F10" s="53">
+        <v>0</v>
+      </c>
+      <c r="G10" s="53">
+        <v>0</v>
+      </c>
+      <c r="H10" s="53">
+        <v>0</v>
+      </c>
+      <c r="I10" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="J10" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="K10" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="M10" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="N10" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="O10" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="P10" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="Q10" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="45" t="s">
+        <v>923</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>924</v>
+      </c>
+      <c r="D11" s="56">
+        <v>0</v>
+      </c>
+      <c r="E11" s="53">
+        <v>0</v>
+      </c>
+      <c r="F11" s="53">
+        <v>0</v>
+      </c>
+      <c r="G11" s="53">
+        <v>0</v>
+      </c>
+      <c r="H11" s="53">
+        <v>0</v>
+      </c>
+      <c r="I11" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="J11" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="K11" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="L11" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="M11" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="N11" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="O11" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="P11" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="Q11" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="45" t="s">
+        <v>925</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>926</v>
+      </c>
+      <c r="D12" s="56">
+        <v>0</v>
+      </c>
+      <c r="E12" s="53">
+        <v>0</v>
+      </c>
+      <c r="F12" s="53">
+        <v>0</v>
+      </c>
+      <c r="G12" s="53">
+        <v>0</v>
+      </c>
+      <c r="H12" s="53">
+        <v>0</v>
+      </c>
+      <c r="I12" s="53">
+        <v>0</v>
+      </c>
+      <c r="J12" s="53">
+        <v>0</v>
+      </c>
+      <c r="K12" s="53">
+        <v>0</v>
+      </c>
+      <c r="L12" s="53">
+        <v>0</v>
+      </c>
+      <c r="M12" s="53">
+        <v>0</v>
+      </c>
+      <c r="N12" s="53">
+        <v>0</v>
+      </c>
+      <c r="O12" s="53">
+        <v>0</v>
+      </c>
+      <c r="P12" s="53">
+        <v>0.7</v>
+      </c>
+      <c r="Q12" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>927</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>928</v>
+      </c>
+      <c r="D13" s="56">
+        <v>0</v>
+      </c>
+      <c r="E13" s="53">
+        <v>0</v>
+      </c>
+      <c r="F13" s="53">
+        <v>0</v>
+      </c>
+      <c r="G13" s="53">
+        <v>0</v>
+      </c>
+      <c r="H13" s="53">
+        <v>0.92631909366008403</v>
+      </c>
+      <c r="I13" s="54">
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="J13" s="53">
+        <v>0.89004126278255302</v>
+      </c>
+      <c r="K13" s="54">
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="L13" s="53">
+        <v>0.88642733207046298</v>
+      </c>
+      <c r="M13" s="53">
+        <v>0.88129071613306198</v>
+      </c>
+      <c r="N13" s="54">
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="O13" s="54">
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="P13" s="54">
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="Q13" s="58">
+        <v>0.94166040230902204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>929</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>930</v>
+      </c>
+      <c r="D14" s="56">
+        <v>0</v>
+      </c>
+      <c r="E14" s="53">
+        <v>0</v>
+      </c>
+      <c r="F14" s="53">
+        <v>0</v>
+      </c>
+      <c r="G14" s="53">
+        <v>0</v>
+      </c>
+      <c r="H14" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="J14" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="K14" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="L14" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="M14" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="N14" s="53">
+        <v>0</v>
+      </c>
+      <c r="O14" s="53">
+        <v>0</v>
+      </c>
+      <c r="P14" s="53">
+        <v>0.7</v>
+      </c>
+      <c r="Q14" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>931</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>932</v>
+      </c>
+      <c r="D15" s="56">
+        <v>0</v>
+      </c>
+      <c r="E15" s="53">
+        <v>0</v>
+      </c>
+      <c r="F15" s="53">
+        <v>0</v>
+      </c>
+      <c r="G15" s="53">
+        <v>0</v>
+      </c>
+      <c r="H15" s="53">
+        <v>0.98800605724956503</v>
+      </c>
+      <c r="I15" s="54">
+        <v>0.99877498740551296</v>
+      </c>
+      <c r="J15" s="53">
+        <v>1</v>
+      </c>
+      <c r="K15" s="54">
+        <v>1</v>
+      </c>
+      <c r="L15" s="53">
+        <v>1</v>
+      </c>
+      <c r="M15" s="53">
+        <v>1</v>
+      </c>
+      <c r="N15" s="54">
+        <v>1</v>
+      </c>
+      <c r="O15" s="54">
+        <v>0.999156412809172</v>
+      </c>
+      <c r="P15" s="54">
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="Q15" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>933</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>934</v>
+      </c>
+      <c r="D16" s="56">
+        <v>0</v>
+      </c>
+      <c r="E16" s="53">
+        <v>0</v>
+      </c>
+      <c r="F16" s="53">
+        <v>0</v>
+      </c>
+      <c r="G16" s="53">
+        <v>0</v>
+      </c>
+      <c r="H16" s="53">
+        <v>0.93196078849751895</v>
+      </c>
+      <c r="I16" s="54">
+        <v>0.90542002153861501</v>
+      </c>
+      <c r="J16" s="53">
+        <v>0.92506224740253995</v>
+      </c>
+      <c r="K16" s="54">
+        <v>0.91188541832382797</v>
+      </c>
+      <c r="L16" s="53">
+        <v>0.95784981126300694</v>
+      </c>
+      <c r="M16" s="53">
+        <v>0.92480067633781304</v>
+      </c>
+      <c r="N16" s="54">
+        <v>0.81225200582322299</v>
+      </c>
+      <c r="O16" s="54">
+        <v>0.90874200468859301</v>
+      </c>
+      <c r="P16" s="54">
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="Q16" s="58">
+        <v>0.95200977870694903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>935</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>936</v>
+      </c>
+      <c r="D17" s="56">
+        <v>0</v>
+      </c>
+      <c r="E17" s="53">
+        <v>0</v>
+      </c>
+      <c r="F17" s="53">
+        <v>0</v>
+      </c>
+      <c r="G17" s="53">
+        <v>0</v>
+      </c>
+      <c r="H17" s="53">
+        <v>0.99766367004677803</v>
+      </c>
+      <c r="I17" s="54">
+        <v>0.99959212142745102</v>
+      </c>
+      <c r="J17" s="53">
+        <v>1</v>
+      </c>
+      <c r="K17" s="54">
+        <v>1</v>
+      </c>
+      <c r="L17" s="53">
+        <v>0.99998577931585997</v>
+      </c>
+      <c r="M17" s="53">
+        <v>0.99987357745073902</v>
+      </c>
+      <c r="N17" s="54">
+        <v>1</v>
+      </c>
+      <c r="O17" s="54">
+        <v>1</v>
+      </c>
+      <c r="P17" s="54">
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="Q17" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>937</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>938</v>
+      </c>
+      <c r="D18" s="56">
+        <v>0</v>
+      </c>
+      <c r="E18" s="53">
+        <v>0</v>
+      </c>
+      <c r="F18" s="53">
+        <v>0</v>
+      </c>
+      <c r="G18" s="53">
+        <v>0</v>
+      </c>
+      <c r="H18" s="53">
+        <v>0.99990715571585498</v>
+      </c>
+      <c r="I18" s="54">
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="J18" s="53">
+        <v>0.999829857254386</v>
+      </c>
+      <c r="K18" s="54">
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="L18" s="53">
+        <v>0.99991695252840795</v>
+      </c>
+      <c r="M18" s="53">
+        <v>0.99969184027675295</v>
+      </c>
+      <c r="N18" s="54">
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="O18" s="54">
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="P18" s="54">
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="Q18" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>939</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>940</v>
+      </c>
+      <c r="D19" s="56">
+        <v>0</v>
+      </c>
+      <c r="E19" s="53">
+        <v>0</v>
+      </c>
+      <c r="F19" s="53">
+        <v>0</v>
+      </c>
+      <c r="G19" s="53">
+        <v>0</v>
+      </c>
+      <c r="H19" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="I19" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="J19" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="K19" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="L19" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="M19" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="N19" s="53">
+        <v>0</v>
+      </c>
+      <c r="O19" s="53">
+        <v>0</v>
+      </c>
+      <c r="P19" s="53">
+        <v>0.7</v>
+      </c>
+      <c r="Q19" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>895</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>909</v>
+      </c>
+      <c r="D20" s="56">
+        <v>0</v>
+      </c>
+      <c r="E20" s="53">
+        <v>0</v>
+      </c>
+      <c r="F20" s="53">
+        <v>0</v>
+      </c>
+      <c r="G20" s="53">
+        <v>0</v>
+      </c>
+      <c r="H20" s="53">
+        <v>0.93906914981729195</v>
+      </c>
+      <c r="I20" s="53">
+        <v>1</v>
+      </c>
+      <c r="J20" s="53">
+        <v>1</v>
+      </c>
+      <c r="K20" s="53">
+        <v>1</v>
+      </c>
+      <c r="L20" s="53">
+        <v>1</v>
+      </c>
+      <c r="M20" s="53">
+        <v>1</v>
+      </c>
+      <c r="N20" s="53">
+        <v>1</v>
+      </c>
+      <c r="O20" s="53">
+        <v>1</v>
+      </c>
+      <c r="P20" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="55"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>896</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>910</v>
+      </c>
+      <c r="D22" s="60">
+        <v>0</v>
+      </c>
+      <c r="E22" s="61">
+        <v>0</v>
+      </c>
+      <c r="F22" s="61">
+        <v>0</v>
+      </c>
+      <c r="G22" s="61">
+        <v>0</v>
+      </c>
+      <c r="H22" s="61">
+        <v>0.99919911626622504</v>
+      </c>
+      <c r="I22" s="61">
+        <v>0.87677531783260598</v>
+      </c>
+      <c r="J22" s="61">
+        <v>0.99934833441944304</v>
+      </c>
+      <c r="K22" s="61">
+        <v>0.99081651699607998</v>
+      </c>
+      <c r="L22" s="61">
+        <v>0.99984188056712198</v>
+      </c>
+      <c r="M22" s="61">
+        <v>0.95856711264566297</v>
+      </c>
+      <c r="N22" s="61">
+        <v>0.97927689954939101</v>
+      </c>
+      <c r="O22" s="61">
+        <v>0.98477251797624299</v>
+      </c>
+      <c r="P22" s="53">
+        <v>0.99956726608327695</v>
+      </c>
+      <c r="Q22" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>897</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>911</v>
+      </c>
+      <c r="D23" s="60">
+        <v>0</v>
+      </c>
+      <c r="E23" s="61">
+        <v>0</v>
+      </c>
+      <c r="F23" s="61">
+        <v>0</v>
+      </c>
+      <c r="G23" s="61">
+        <v>0</v>
+      </c>
+      <c r="H23" s="61">
+        <v>1</v>
+      </c>
+      <c r="I23" s="61">
+        <v>0.99483779676117601</v>
+      </c>
+      <c r="J23" s="61">
+        <v>0.93729264738237394</v>
+      </c>
+      <c r="K23" s="61">
+        <v>1</v>
+      </c>
+      <c r="L23" s="61">
+        <v>0.99980424661399503</v>
+      </c>
+      <c r="M23" s="61">
+        <v>1</v>
+      </c>
+      <c r="N23" s="61">
+        <v>1</v>
+      </c>
+      <c r="O23" s="61">
+        <v>1</v>
+      </c>
+      <c r="P23" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="62">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>898</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>912</v>
+      </c>
+      <c r="D24" s="60">
+        <v>0</v>
+      </c>
+      <c r="E24" s="61">
+        <v>0</v>
+      </c>
+      <c r="F24" s="61">
+        <v>0</v>
+      </c>
+      <c r="G24" s="61">
+        <v>0</v>
+      </c>
+      <c r="H24" s="61">
+        <v>1</v>
+      </c>
+      <c r="I24" s="61">
+        <v>1</v>
+      </c>
+      <c r="J24" s="61">
+        <v>1</v>
+      </c>
+      <c r="K24" s="61">
+        <v>1</v>
+      </c>
+      <c r="L24" s="61">
+        <v>1</v>
+      </c>
+      <c r="M24" s="61">
+        <v>1</v>
+      </c>
+      <c r="N24" s="61">
+        <v>1</v>
+      </c>
+      <c r="O24" s="61">
+        <v>1</v>
+      </c>
+      <c r="P24" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>899</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>913</v>
+      </c>
+      <c r="D25" s="60">
+        <v>0</v>
+      </c>
+      <c r="E25" s="61">
+        <v>0</v>
+      </c>
+      <c r="F25" s="61">
+        <v>0</v>
+      </c>
+      <c r="G25" s="61">
+        <v>0</v>
+      </c>
+      <c r="H25" s="61">
+        <v>1</v>
+      </c>
+      <c r="I25" s="61">
+        <v>1</v>
+      </c>
+      <c r="J25" s="61">
+        <v>1</v>
+      </c>
+      <c r="K25" s="61">
+        <v>1</v>
+      </c>
+      <c r="L25" s="61">
+        <v>1</v>
+      </c>
+      <c r="M25" s="61">
+        <v>1</v>
+      </c>
+      <c r="N25" s="61">
+        <v>1</v>
+      </c>
+      <c r="O25" s="61">
+        <v>1</v>
+      </c>
+      <c r="P25" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="62">
+        <v>0.94234466577596099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>900</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>914</v>
+      </c>
+      <c r="D26" s="60">
+        <v>0</v>
+      </c>
+      <c r="E26" s="61">
+        <v>0</v>
+      </c>
+      <c r="F26" s="61">
+        <v>0</v>
+      </c>
+      <c r="G26" s="61">
+        <v>0</v>
+      </c>
+      <c r="H26" s="61">
+        <v>1</v>
+      </c>
+      <c r="I26" s="61">
+        <v>1</v>
+      </c>
+      <c r="J26" s="61">
+        <v>1</v>
+      </c>
+      <c r="K26" s="61">
+        <v>1</v>
+      </c>
+      <c r="L26" s="61">
+        <v>1</v>
+      </c>
+      <c r="M26" s="61">
+        <v>1</v>
+      </c>
+      <c r="N26" s="61">
+        <v>1</v>
+      </c>
+      <c r="O26" s="61">
+        <v>1</v>
+      </c>
+      <c r="P26" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>901</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>915</v>
+      </c>
+      <c r="D27" s="60">
+        <v>0</v>
+      </c>
+      <c r="E27" s="61">
+        <v>0</v>
+      </c>
+      <c r="F27" s="61">
+        <v>0</v>
+      </c>
+      <c r="G27" s="61">
+        <v>0</v>
+      </c>
+      <c r="H27" s="61">
+        <v>1</v>
+      </c>
+      <c r="I27" s="61">
+        <v>1</v>
+      </c>
+      <c r="J27" s="61">
+        <v>1</v>
+      </c>
+      <c r="K27" s="61">
+        <v>1</v>
+      </c>
+      <c r="L27" s="61">
+        <v>1</v>
+      </c>
+      <c r="M27" s="61">
+        <v>1</v>
+      </c>
+      <c r="N27" s="61">
+        <v>1</v>
+      </c>
+      <c r="O27" s="61">
+        <v>1</v>
+      </c>
+      <c r="P27" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>902</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>916</v>
+      </c>
+      <c r="D28" s="60">
+        <v>0</v>
+      </c>
+      <c r="E28" s="61">
+        <v>0</v>
+      </c>
+      <c r="F28" s="61">
+        <v>0</v>
+      </c>
+      <c r="G28" s="61">
+        <v>0</v>
+      </c>
+      <c r="H28" s="61">
+        <v>1</v>
+      </c>
+      <c r="I28" s="61">
+        <v>1</v>
+      </c>
+      <c r="J28" s="61">
+        <v>1</v>
+      </c>
+      <c r="K28" s="61">
+        <v>1</v>
+      </c>
+      <c r="L28" s="61">
+        <v>1</v>
+      </c>
+      <c r="M28" s="61">
+        <v>1</v>
+      </c>
+      <c r="N28" s="61">
+        <v>1</v>
+      </c>
+      <c r="O28" s="61">
+        <v>1</v>
+      </c>
+      <c r="P28" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>903</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>917</v>
+      </c>
+      <c r="D29" s="63">
+        <v>0</v>
+      </c>
+      <c r="E29" s="64">
+        <v>0</v>
+      </c>
+      <c r="F29" s="64">
+        <v>0</v>
+      </c>
+      <c r="G29" s="64">
+        <v>0</v>
+      </c>
+      <c r="H29" s="64">
+        <v>1</v>
+      </c>
+      <c r="I29" s="64">
+        <v>1</v>
+      </c>
+      <c r="J29" s="64">
+        <v>1</v>
+      </c>
+      <c r="K29" s="64">
+        <v>1</v>
+      </c>
+      <c r="L29" s="64">
+        <v>1</v>
+      </c>
+      <c r="M29" s="64">
+        <v>1</v>
+      </c>
+      <c r="N29" s="64">
+        <v>1</v>
+      </c>
+      <c r="O29" s="64">
+        <v>1</v>
+      </c>
+      <c r="P29" s="65">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="P30" s="67"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="43" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D34" s="68" t="s">
+        <v>942</v>
+      </c>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" t="s">
+        <v>303</v>
+      </c>
+      <c r="J34" t="s">
+        <v>304</v>
+      </c>
+      <c r="K34" t="s">
+        <v>283</v>
+      </c>
+      <c r="L34" t="s">
+        <v>284</v>
+      </c>
+      <c r="M34" s="68" t="s">
+        <v>943</v>
+      </c>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="Q34" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>944</v>
+      </c>
+      <c r="D35" t="s">
+        <v>300</v>
+      </c>
+      <c r="E35" t="s">
+        <v>301</v>
+      </c>
+      <c r="F35" t="s">
+        <v>945</v>
+      </c>
+      <c r="G35" t="s">
+        <v>857</v>
+      </c>
+      <c r="H35" t="s">
+        <v>438</v>
+      </c>
+      <c r="I35" t="s">
+        <v>303</v>
+      </c>
+      <c r="J35" t="s">
+        <v>304</v>
+      </c>
+      <c r="K35" t="s">
+        <v>283</v>
+      </c>
+      <c r="L35" t="s">
+        <v>284</v>
+      </c>
+      <c r="M35" t="s">
+        <v>302</v>
+      </c>
+      <c r="N35" t="s">
+        <v>305</v>
+      </c>
+      <c r="O35" t="s">
+        <v>289</v>
+      </c>
+      <c r="P35" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>290</v>
+      </c>
+      <c r="R35" t="s">
+        <v>291</v>
+      </c>
+      <c r="S35" t="s">
+        <v>437</v>
+      </c>
+      <c r="T35" t="s">
+        <v>285</v>
+      </c>
+      <c r="U35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="46" t="s">
+        <v>946</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>874</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>875</v>
+      </c>
+      <c r="D36" s="69"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70">
+        <f t="shared" ref="M36:O37" si="0">$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="N36" s="70">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="O36" s="70">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="70"/>
+      <c r="R36" s="70"/>
+      <c r="S36" s="70"/>
+      <c r="T36" s="70"/>
+      <c r="U36" s="71"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" s="46" t="s">
+        <v>946</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>533</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="D37" s="72"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="N37" s="73">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="O37" s="73">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="74"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="46" t="s">
+        <v>946</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="D38" s="72"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="N38" s="73">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="O38" s="73">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="74"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39" s="46" t="s">
+        <v>946</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>539</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="D39" s="72"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="N39" s="73">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="O39" s="73">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="73"/>
+      <c r="U39" s="74"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" s="25" t="s">
+        <v>947</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>586</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="D40" s="72"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73">
+        <f>$K$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="J40" s="73">
+        <f>$I$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="K40" s="73">
+        <f>$N$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="L40" s="73">
+        <f>$O$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="M40" s="73">
+        <f>$P$11</f>
+        <v>0.7</v>
+      </c>
+      <c r="N40" s="73">
+        <f>$P$11</f>
+        <v>0.7</v>
+      </c>
+      <c r="O40" s="73">
+        <f>$P$11</f>
+        <v>0.7</v>
+      </c>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="74"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" s="25" t="s">
+        <v>947</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>587</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="D41" s="72"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73">
+        <f t="shared" ref="I41:I43" si="1">$K$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="J41" s="73">
+        <f t="shared" ref="J41:J43" si="2">$I$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="K41" s="73">
+        <f t="shared" ref="K41:K43" si="3">$N$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="L41" s="73">
+        <f t="shared" ref="L41:L43" si="4">$O$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="M41" s="73">
+        <f t="shared" ref="M41:O43" si="5">$P$11</f>
+        <v>0.7</v>
+      </c>
+      <c r="N41" s="73">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="O41" s="73">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="74"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" s="25" t="s">
+        <v>947</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>588</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="D42" s="72"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="J42" s="73">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="K42" s="73">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="L42" s="73">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="M42" s="73">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="N42" s="73">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="O42" s="73">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="74"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" s="25" t="s">
+        <v>947</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>589</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="D43" s="72"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="J43" s="73">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="K43" s="73">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="L43" s="73">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="M43" s="73">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="N43" s="73">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="O43" s="73">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="73"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="74"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" s="57" t="s">
+        <v>948</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>882</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>883</v>
+      </c>
+      <c r="D44" s="72">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E44" s="73">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F44" s="73">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G44" s="73">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H44" s="73">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="I44" s="73">
+        <f>$K$13</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="J44" s="73">
+        <f>$I$13</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="K44" s="73">
+        <f>$N$13</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="L44" s="73">
+        <f>$O$13</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="M44" s="73">
+        <f t="shared" ref="M44:O44" si="6">$P$13</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N44" s="73">
+        <f t="shared" si="6"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O44" s="73">
+        <f t="shared" si="6"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="74"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A45" s="57" t="s">
+        <v>948</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>884</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>885</v>
+      </c>
+      <c r="D45" s="72">
+        <f>$Q$15</f>
+        <v>1</v>
+      </c>
+      <c r="E45" s="73">
+        <f t="shared" ref="E45:F45" si="7">$Q$15</f>
+        <v>1</v>
+      </c>
+      <c r="F45" s="73">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="73">
+        <f>$Q$15</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="73">
+        <f>$Q$15</f>
+        <v>1</v>
+      </c>
+      <c r="I45" s="73">
+        <f>$K$15</f>
+        <v>1</v>
+      </c>
+      <c r="J45" s="73">
+        <f>$I$15</f>
+        <v>0.99877498740551296</v>
+      </c>
+      <c r="K45" s="73">
+        <f>$N$15</f>
+        <v>1</v>
+      </c>
+      <c r="L45" s="73">
+        <f>$O$15</f>
+        <v>0.999156412809172</v>
+      </c>
+      <c r="M45" s="73">
+        <f>$P$15</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="N45" s="73">
+        <f>$P$15</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="O45" s="73">
+        <f>$P$15</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="74"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A46" s="57" t="s">
+        <v>948</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>601</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="D46" s="72">
+        <f>$Q$16</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="E46" s="73">
+        <f t="shared" ref="E46:G46" si="8">$Q$16</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="F46" s="73">
+        <f t="shared" si="8"/>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="G46" s="73">
+        <f t="shared" si="8"/>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="H46" s="73">
+        <f>$Q$16</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="I46" s="73">
+        <f>$K$16</f>
+        <v>0.91188541832382797</v>
+      </c>
+      <c r="J46" s="73">
+        <f>$I$16</f>
+        <v>0.90542002153861501</v>
+      </c>
+      <c r="K46" s="73">
+        <f>$N$16</f>
+        <v>0.81225200582322299</v>
+      </c>
+      <c r="L46" s="73">
+        <f>$O$16</f>
+        <v>0.90874200468859301</v>
+      </c>
+      <c r="M46" s="73">
+        <f>$P$16</f>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="N46" s="73">
+        <f>$P$16</f>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="O46" s="73">
+        <f>$P$16</f>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="74"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47" s="57" t="s">
+        <v>948</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>600</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="D47" s="72">
+        <f>$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="E47" s="73">
+        <f>$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="F47" s="73">
+        <f t="shared" ref="F47:G48" si="9">$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="G47" s="73">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H47" s="73">
+        <f>$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="I47" s="73">
+        <f>$K$17</f>
+        <v>1</v>
+      </c>
+      <c r="J47" s="73">
+        <f>$I$17</f>
+        <v>0.99959212142745102</v>
+      </c>
+      <c r="K47" s="73">
+        <f>$N$17</f>
+        <v>1</v>
+      </c>
+      <c r="L47" s="73">
+        <f>$O$17</f>
+        <v>1</v>
+      </c>
+      <c r="M47" s="73">
+        <f t="shared" ref="M47:O48" si="10">$P$17</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="N47" s="73">
+        <f t="shared" si="10"/>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="O47" s="73">
+        <f t="shared" si="10"/>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="74"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48" s="57" t="s">
+        <v>948</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>602</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="72">
+        <f>$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="E48" s="73">
+        <f>$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="F48" s="73">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G48" s="73">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H48" s="73">
+        <f>$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="I48" s="73">
+        <f>$K$17</f>
+        <v>1</v>
+      </c>
+      <c r="J48" s="73">
+        <f>$I$17</f>
+        <v>0.99959212142745102</v>
+      </c>
+      <c r="K48" s="73">
+        <f>$N$17</f>
+        <v>1</v>
+      </c>
+      <c r="L48" s="73">
+        <f>$O$17</f>
+        <v>1</v>
+      </c>
+      <c r="M48" s="73">
+        <f t="shared" si="10"/>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="N48" s="73">
+        <f t="shared" si="10"/>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="O48" s="73">
+        <f t="shared" si="10"/>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="73"/>
+      <c r="U48" s="74"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A49" s="57" t="s">
+        <v>948</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>603</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="72">
+        <f>$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="E49" s="73">
+        <f t="shared" ref="E49:F49" si="11">$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="F49" s="73">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G49" s="73">
+        <f>$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="H49" s="73">
+        <f>$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="I49" s="73">
+        <f>$K$18</f>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="J49" s="73">
+        <f>$I$18</f>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="K49" s="73">
+        <f>$N$18</f>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="L49" s="73">
+        <f>$O$18</f>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="M49" s="73">
+        <f>$P$18</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N49" s="73">
+        <f>$P$18</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O49" s="73">
+        <f>$P$18</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="73"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="73"/>
+      <c r="U49" s="74"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A50" s="57" t="s">
+        <v>948</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>604</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="72">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E50" s="73">
+        <f t="shared" ref="E50:G50" si="12">$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F50" s="73">
+        <f t="shared" si="12"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G50" s="73">
+        <f t="shared" si="12"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H50" s="73">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="I50" s="73">
+        <f>$K$13</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="J50" s="73">
+        <f>$I$13</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="K50" s="73">
+        <f>$N$13</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="L50" s="73">
+        <f>$O$13</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="M50" s="73">
+        <f>$P$13</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N50" s="73">
+        <f>$P$13</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O50" s="73">
+        <f t="shared" ref="O50" si="13">$P$13</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="73"/>
+      <c r="T50" s="73"/>
+      <c r="U50" s="74"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51" s="57" t="s">
+        <v>948</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>605</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="72">
+        <f>$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="E51" s="73">
+        <f t="shared" ref="E51:G51" si="14">$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="F51" s="73">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G51" s="73">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="H51" s="73">
+        <f>$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="I51" s="73">
+        <f>$K$18</f>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="J51" s="73">
+        <f>$I$18</f>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="K51" s="73">
+        <f>$N$18</f>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="L51" s="73">
+        <f>$O$18</f>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="M51" s="73">
+        <f>$P$18</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N51" s="73">
+        <f>$P$18</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O51" s="73">
+        <f>$P$18</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="P51" s="73"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="73"/>
+      <c r="T51" s="73"/>
+      <c r="U51" s="74"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A52" s="57" t="s">
+        <v>948</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>606</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="72">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E52" s="73">
+        <f t="shared" ref="E52:H54" si="15">$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F52" s="73">
+        <f t="shared" si="15"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G52" s="73">
+        <f t="shared" si="15"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H52" s="73">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="I52" s="73">
+        <f>$K$13</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="J52" s="73">
+        <f>$I$13</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="K52" s="73">
+        <f>$N$13</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="L52" s="73">
+        <f>$O$13</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="M52" s="73">
+        <f>$P$13</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N52" s="73">
+        <f>$P$13</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O52" s="73">
+        <f t="shared" ref="O52:O54" si="16">$P$13</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="73"/>
+      <c r="T52" s="73"/>
+      <c r="U52" s="74"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A53" s="57" t="s">
+        <v>948</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>607</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="72">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E53" s="73">
+        <f t="shared" si="15"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F53" s="73">
+        <f t="shared" si="15"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G53" s="73">
+        <f t="shared" si="15"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H53" s="73">
+        <f t="shared" si="15"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="I53" s="73">
+        <f t="shared" ref="I53:I54" si="17">$K$13</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="J53" s="73">
+        <f t="shared" ref="J53:J54" si="18">$I$13</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="K53" s="73">
+        <f t="shared" ref="K53:K54" si="19">$N$13</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="L53" s="73">
+        <f t="shared" ref="L53:L54" si="20">$O$13</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="M53" s="73">
+        <f t="shared" ref="M53:N54" si="21">$P$13</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N53" s="73">
+        <f t="shared" si="21"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O53" s="73">
+        <f t="shared" si="16"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="73"/>
+      <c r="U53" s="74"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A54" s="57" t="s">
+        <v>948</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>608</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="D54" s="72">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E54" s="73">
+        <f t="shared" si="15"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F54" s="73">
+        <f t="shared" si="15"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G54" s="73">
+        <f t="shared" si="15"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H54" s="73">
+        <f t="shared" si="15"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="I54" s="73">
+        <f t="shared" si="17"/>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="J54" s="73">
+        <f t="shared" si="18"/>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="K54" s="73">
+        <f t="shared" si="19"/>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="L54" s="73">
+        <f t="shared" si="20"/>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="M54" s="73">
+        <f t="shared" si="21"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N54" s="73">
+        <f t="shared" si="21"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O54" s="73">
+        <f t="shared" si="16"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="73"/>
+      <c r="T54" s="73"/>
+      <c r="U54" s="74"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A55" s="51" t="s">
+        <v>949</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>880</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>881</v>
+      </c>
+      <c r="D55" s="75"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76">
+        <f>$K$9</f>
+        <v>0.8</v>
+      </c>
+      <c r="J55" s="76">
+        <f>$I$9</f>
+        <v>0.8</v>
+      </c>
+      <c r="K55" s="76">
+        <f>$N$9</f>
+        <v>0.8</v>
+      </c>
+      <c r="L55" s="76">
+        <f>$O$9</f>
+        <v>0.8</v>
+      </c>
+      <c r="M55" s="76">
+        <f>$P$9</f>
+        <v>0.7</v>
+      </c>
+      <c r="N55" s="76">
+        <f>$P$9</f>
+        <v>0.7</v>
+      </c>
+      <c r="O55" s="76">
+        <f>$P$9</f>
+        <v>0.7</v>
+      </c>
+      <c r="P55" s="76"/>
+      <c r="Q55" s="76">
+        <f>$D$9</f>
+        <v>0.85</v>
+      </c>
+      <c r="R55" s="76"/>
+      <c r="S55" s="76"/>
+      <c r="T55" s="76"/>
+      <c r="U55" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="M34:O34"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B31:C32 B8 B10:B11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B0F1D2-7059-4956-8DCD-79F87C6BF94C}">
+  <dimension ref="A1:T21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" t="str">
+        <f>exio_usa!B35</f>
+        <v>USA</v>
+      </c>
+      <c r="B1">
+        <f>exio_usa!C35</f>
+        <v>0</v>
+      </c>
+      <c r="C1" t="str">
+        <f>exio_usa!D35</f>
+        <v>Residential</v>
+      </c>
+      <c r="D1" t="str">
+        <f>exio_usa!E35</f>
+        <v>Non-Residential</v>
+      </c>
+      <c r="E1" t="str">
+        <f>exio_usa!F35</f>
+        <v>Other buildungs</v>
+      </c>
+      <c r="F1" t="str">
+        <f>exio_usa!G35</f>
+        <v>Infrastructure</v>
+      </c>
+      <c r="G1" t="str">
+        <f>exio_usa!H35</f>
+        <v>Other construction</v>
+      </c>
+      <c r="H1" t="str">
+        <f>exio_usa!I35</f>
+        <v>Electronic machinery</v>
+      </c>
+      <c r="I1" t="str">
+        <f>exio_usa!J35</f>
+        <v>Other machinery</v>
+      </c>
+      <c r="J1" t="str">
+        <f>exio_usa!K35</f>
+        <v>Motor vehicles</v>
+      </c>
+      <c r="K1" t="str">
+        <f>exio_usa!L35</f>
+        <v>Other transport equipment</v>
+      </c>
+      <c r="L1" t="str">
+        <f>exio_usa!M35</f>
+        <v>Household appliances</v>
+      </c>
+      <c r="M1" t="str">
+        <f>exio_usa!N35</f>
+        <v>Other consumer durables</v>
+      </c>
+      <c r="N1" t="str">
+        <f>exio_usa!O35</f>
+        <v>Furniture</v>
+      </c>
+      <c r="O1" t="str">
+        <f>exio_usa!P35</f>
+        <v>Extraction</v>
+      </c>
+      <c r="P1" t="str">
+        <f>exio_usa!Q35</f>
+        <v>Textiles</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>exio_usa!R35</f>
+        <v>Packaging</v>
+      </c>
+      <c r="R1" t="str">
+        <f>exio_usa!S35</f>
+        <v>Food products</v>
+      </c>
+      <c r="S1" t="str">
+        <f>exio_usa!T35</f>
+        <v>Products nec</v>
+      </c>
+      <c r="T1" t="str">
+        <f>exio_usa!U35</f>
+        <v>Services</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>exio_usa!B36</f>
+        <v>321100+32121A</v>
+      </c>
+      <c r="B2" s="78" t="str">
+        <f>exio_usa!C36</f>
+        <v>Sawmills and wood preservation+Veneer and plywood manufacturing</v>
+      </c>
+      <c r="C2" s="78">
+        <f>exio_usa!D36</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="78">
+        <f>exio_usa!E36</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="78">
+        <f>exio_usa!F36</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="78">
+        <f>exio_usa!G36</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="78">
+        <f>exio_usa!H36</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="78">
+        <f>exio_usa!I36</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="78">
+        <f>exio_usa!J36</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="78">
+        <f>exio_usa!K36</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="78">
+        <f>exio_usa!L36</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="78">
+        <f>exio_usa!M36</f>
+        <v>0.7</v>
+      </c>
+      <c r="M2" s="78">
+        <f>exio_usa!N36</f>
+        <v>0.7</v>
+      </c>
+      <c r="N2" s="78">
+        <f>exio_usa!O36</f>
+        <v>0.7</v>
+      </c>
+      <c r="O2" s="78">
+        <f>exio_usa!P36</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="78">
+        <f>exio_usa!Q36</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="78">
+        <f>exio_usa!R36</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="78">
+        <f>exio_usa!S36</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="78">
+        <f>exio_usa!T36</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="78">
+        <f>exio_usa!U36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>exio_usa!B37</f>
+        <v>321219</v>
+      </c>
+      <c r="B3" s="78" t="str">
+        <f>exio_usa!C37</f>
+        <v>Reconstituted wood product manufacturing</v>
+      </c>
+      <c r="C3" s="78">
+        <f>exio_usa!D37</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="78">
+        <f>exio_usa!E37</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="78">
+        <f>exio_usa!F37</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="78">
+        <f>exio_usa!G37</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="78">
+        <f>exio_usa!H37</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="78">
+        <f>exio_usa!I37</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="78">
+        <f>exio_usa!J37</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="78">
+        <f>exio_usa!K37</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="78">
+        <f>exio_usa!L37</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="78">
+        <f>exio_usa!M37</f>
+        <v>0.7</v>
+      </c>
+      <c r="M3" s="78">
+        <f>exio_usa!N37</f>
+        <v>0.7</v>
+      </c>
+      <c r="N3" s="78">
+        <f>exio_usa!O37</f>
+        <v>0.7</v>
+      </c>
+      <c r="O3" s="78">
+        <f>exio_usa!P37</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="78">
+        <f>exio_usa!Q37</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="78">
+        <f>exio_usa!R37</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="78">
+        <f>exio_usa!S37</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="78">
+        <f>exio_usa!T37</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="78">
+        <f>exio_usa!U37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>exio_usa!B38</f>
+        <v>32121B</v>
+      </c>
+      <c r="B4" s="78" t="str">
+        <f>exio_usa!C38</f>
+        <v>Engineered wood member and truss manufacturing</v>
+      </c>
+      <c r="C4" s="78">
+        <f>exio_usa!D38</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="78">
+        <f>exio_usa!E38</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="78">
+        <f>exio_usa!F38</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="78">
+        <f>exio_usa!G38</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="78">
+        <f>exio_usa!H38</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="78">
+        <f>exio_usa!I38</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="78">
+        <f>exio_usa!J38</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="78">
+        <f>exio_usa!K38</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="78">
+        <f>exio_usa!L38</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="78">
+        <f>exio_usa!M38</f>
+        <v>0.7</v>
+      </c>
+      <c r="M4" s="78">
+        <f>exio_usa!N38</f>
+        <v>0.7</v>
+      </c>
+      <c r="N4" s="78">
+        <f>exio_usa!O38</f>
+        <v>0.7</v>
+      </c>
+      <c r="O4" s="78">
+        <f>exio_usa!P38</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="78">
+        <f>exio_usa!Q38</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="78">
+        <f>exio_usa!R38</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="78">
+        <f>exio_usa!S38</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="78">
+        <f>exio_usa!T38</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="78">
+        <f>exio_usa!U38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>exio_usa!B39</f>
+        <v>321999</v>
+      </c>
+      <c r="B5" s="78" t="str">
+        <f>exio_usa!C39</f>
+        <v>All other miscellaneous wood product manufacturing</v>
+      </c>
+      <c r="C5" s="78">
+        <f>exio_usa!D39</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="78">
+        <f>exio_usa!E39</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="78">
+        <f>exio_usa!F39</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="78">
+        <f>exio_usa!G39</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="78">
+        <f>exio_usa!H39</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="78">
+        <f>exio_usa!I39</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="78">
+        <f>exio_usa!J39</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="78">
+        <f>exio_usa!K39</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="78">
+        <f>exio_usa!L39</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="78">
+        <f>exio_usa!M39</f>
+        <v>0.7</v>
+      </c>
+      <c r="M5" s="78">
+        <f>exio_usa!N39</f>
+        <v>0.7</v>
+      </c>
+      <c r="N5" s="78">
+        <f>exio_usa!O39</f>
+        <v>0.7</v>
+      </c>
+      <c r="O5" s="78">
+        <f>exio_usa!P39</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="78">
+        <f>exio_usa!Q39</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="78">
+        <f>exio_usa!R39</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="78">
+        <f>exio_usa!S39</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="78">
+        <f>exio_usa!T39</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="78">
+        <f>exio_usa!U39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>exio_usa!B40</f>
+        <v>327211</v>
+      </c>
+      <c r="B6" s="78" t="str">
+        <f>exio_usa!C40</f>
+        <v>Flat glass manufacturing</v>
+      </c>
+      <c r="C6" s="78">
+        <f>exio_usa!D40</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="78">
+        <f>exio_usa!E40</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="78">
+        <f>exio_usa!F40</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="78">
+        <f>exio_usa!G40</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="78">
+        <f>exio_usa!H40</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="78">
+        <f>exio_usa!I40</f>
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="78">
+        <f>exio_usa!J40</f>
+        <v>0.8</v>
+      </c>
+      <c r="J6" s="78">
+        <f>exio_usa!K40</f>
+        <v>0.8</v>
+      </c>
+      <c r="K6" s="78">
+        <f>exio_usa!L40</f>
+        <v>0.8</v>
+      </c>
+      <c r="L6" s="78">
+        <f>exio_usa!M40</f>
+        <v>0.7</v>
+      </c>
+      <c r="M6" s="78">
+        <f>exio_usa!N40</f>
+        <v>0.7</v>
+      </c>
+      <c r="N6" s="78">
+        <f>exio_usa!O40</f>
+        <v>0.7</v>
+      </c>
+      <c r="O6" s="78">
+        <f>exio_usa!P40</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="78">
+        <f>exio_usa!Q40</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="78">
+        <f>exio_usa!R40</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="78">
+        <f>exio_usa!S40</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="78">
+        <f>exio_usa!T40</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="78">
+        <f>exio_usa!U40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>exio_usa!B41</f>
+        <v>327212</v>
+      </c>
+      <c r="B7" s="78" t="str">
+        <f>exio_usa!C41</f>
+        <v>Other pressed and blown glass and glassware manufacturing</v>
+      </c>
+      <c r="C7" s="78">
+        <f>exio_usa!D41</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="78">
+        <f>exio_usa!E41</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="78">
+        <f>exio_usa!F41</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="78">
+        <f>exio_usa!G41</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="78">
+        <f>exio_usa!H41</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="78">
+        <f>exio_usa!I41</f>
+        <v>0.8</v>
+      </c>
+      <c r="I7" s="78">
+        <f>exio_usa!J41</f>
+        <v>0.8</v>
+      </c>
+      <c r="J7" s="78">
+        <f>exio_usa!K41</f>
+        <v>0.8</v>
+      </c>
+      <c r="K7" s="78">
+        <f>exio_usa!L41</f>
+        <v>0.8</v>
+      </c>
+      <c r="L7" s="78">
+        <f>exio_usa!M41</f>
+        <v>0.7</v>
+      </c>
+      <c r="M7" s="78">
+        <f>exio_usa!N41</f>
+        <v>0.7</v>
+      </c>
+      <c r="N7" s="78">
+        <f>exio_usa!O41</f>
+        <v>0.7</v>
+      </c>
+      <c r="O7" s="78">
+        <f>exio_usa!P41</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="78">
+        <f>exio_usa!Q41</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="78">
+        <f>exio_usa!R41</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="78">
+        <f>exio_usa!S41</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="78">
+        <f>exio_usa!T41</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="78">
+        <f>exio_usa!U41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>exio_usa!B42</f>
+        <v>327213</v>
+      </c>
+      <c r="B8" s="78" t="str">
+        <f>exio_usa!C42</f>
+        <v>Glass container manufacturing</v>
+      </c>
+      <c r="C8" s="78">
+        <f>exio_usa!D42</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="78">
+        <f>exio_usa!E42</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="78">
+        <f>exio_usa!F42</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="78">
+        <f>exio_usa!G42</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="78">
+        <f>exio_usa!H42</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="78">
+        <f>exio_usa!I42</f>
+        <v>0.8</v>
+      </c>
+      <c r="I8" s="78">
+        <f>exio_usa!J42</f>
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="78">
+        <f>exio_usa!K42</f>
+        <v>0.8</v>
+      </c>
+      <c r="K8" s="78">
+        <f>exio_usa!L42</f>
+        <v>0.8</v>
+      </c>
+      <c r="L8" s="78">
+        <f>exio_usa!M42</f>
+        <v>0.7</v>
+      </c>
+      <c r="M8" s="78">
+        <f>exio_usa!N42</f>
+        <v>0.7</v>
+      </c>
+      <c r="N8" s="78">
+        <f>exio_usa!O42</f>
+        <v>0.7</v>
+      </c>
+      <c r="O8" s="78">
+        <f>exio_usa!P42</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="78">
+        <f>exio_usa!Q42</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="78">
+        <f>exio_usa!R42</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="78">
+        <f>exio_usa!S42</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="78">
+        <f>exio_usa!T42</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="78">
+        <f>exio_usa!U42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>exio_usa!B43</f>
+        <v>327215</v>
+      </c>
+      <c r="B9" s="78" t="str">
+        <f>exio_usa!C43</f>
+        <v>Glass product manufacturing made of purchased glass</v>
+      </c>
+      <c r="C9" s="78">
+        <f>exio_usa!D43</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="78">
+        <f>exio_usa!E43</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="78">
+        <f>exio_usa!F43</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="78">
+        <f>exio_usa!G43</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="78">
+        <f>exio_usa!H43</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="78">
+        <f>exio_usa!I43</f>
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="78">
+        <f>exio_usa!J43</f>
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="78">
+        <f>exio_usa!K43</f>
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="78">
+        <f>exio_usa!L43</f>
+        <v>0.8</v>
+      </c>
+      <c r="L9" s="78">
+        <f>exio_usa!M43</f>
+        <v>0.7</v>
+      </c>
+      <c r="M9" s="78">
+        <f>exio_usa!N43</f>
+        <v>0.7</v>
+      </c>
+      <c r="N9" s="78">
+        <f>exio_usa!O43</f>
+        <v>0.7</v>
+      </c>
+      <c r="O9" s="78">
+        <f>exio_usa!P43</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="78">
+        <f>exio_usa!Q43</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="78">
+        <f>exio_usa!R43</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="78">
+        <f>exio_usa!S43</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="78">
+        <f>exio_usa!T43</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="78">
+        <f>exio_usa!U43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>exio_usa!B44</f>
+        <v>331110+331200</v>
+      </c>
+      <c r="B10" s="78" t="str">
+        <f>exio_usa!C44</f>
+        <v>Iron and steel mills and ferroalloy manufacturing+Steel product manufacturing from purchased steel</v>
+      </c>
+      <c r="C10" s="78">
+        <f>exio_usa!D44</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="D10" s="78">
+        <f>exio_usa!E44</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E10" s="78">
+        <f>exio_usa!F44</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F10" s="78">
+        <f>exio_usa!G44</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G10" s="78">
+        <f>exio_usa!H44</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H10" s="78">
+        <f>exio_usa!I44</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="I10" s="78">
+        <f>exio_usa!J44</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="J10" s="78">
+        <f>exio_usa!K44</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="K10" s="78">
+        <f>exio_usa!L44</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="L10" s="78">
+        <f>exio_usa!M44</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="M10" s="78">
+        <f>exio_usa!N44</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N10" s="78">
+        <f>exio_usa!O44</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O10" s="78">
+        <f>exio_usa!P44</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="78">
+        <f>exio_usa!Q44</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="78">
+        <f>exio_usa!R44</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="78">
+        <f>exio_usa!S44</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="78">
+        <f>exio_usa!T44</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="78">
+        <f>exio_usa!U44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>exio_usa!B45</f>
+        <v>331314+33131A+33131B</v>
+      </c>
+      <c r="B11" s="78" t="str">
+        <f>exio_usa!C45</f>
+        <v>Secondary smelting and alloying of aluminum+Alumina refining and primary aluminum production+Aluminum product manufacturing from purchased aluminum</v>
+      </c>
+      <c r="C11" s="78">
+        <f>exio_usa!D45</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="78">
+        <f>exio_usa!E45</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="78">
+        <f>exio_usa!F45</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="78">
+        <f>exio_usa!G45</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="78">
+        <f>exio_usa!H45</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="78">
+        <f>exio_usa!I45</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="78">
+        <f>exio_usa!J45</f>
+        <v>0.99877498740551296</v>
+      </c>
+      <c r="J11" s="78">
+        <f>exio_usa!K45</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="78">
+        <f>exio_usa!L45</f>
+        <v>0.999156412809172</v>
+      </c>
+      <c r="L11" s="78">
+        <f>exio_usa!M45</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="M11" s="78">
+        <f>exio_usa!N45</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="N11" s="78">
+        <f>exio_usa!O45</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="O11" s="78">
+        <f>exio_usa!P45</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="78">
+        <f>exio_usa!Q45</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="78">
+        <f>exio_usa!R45</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="78">
+        <f>exio_usa!S45</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="78">
+        <f>exio_usa!T45</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="78">
+        <f>exio_usa!U45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>exio_usa!B46</f>
+        <v>331419</v>
+      </c>
+      <c r="B12" s="78" t="str">
+        <f>exio_usa!C46</f>
+        <v>Primary smelting and refining of nonferrous metal (except copper and aluminum)</v>
+      </c>
+      <c r="C12" s="78">
+        <f>exio_usa!D46</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="D12" s="78">
+        <f>exio_usa!E46</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="E12" s="78">
+        <f>exio_usa!F46</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="F12" s="78">
+        <f>exio_usa!G46</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="G12" s="78">
+        <f>exio_usa!H46</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="H12" s="78">
+        <f>exio_usa!I46</f>
+        <v>0.91188541832382797</v>
+      </c>
+      <c r="I12" s="78">
+        <f>exio_usa!J46</f>
+        <v>0.90542002153861501</v>
+      </c>
+      <c r="J12" s="78">
+        <f>exio_usa!K46</f>
+        <v>0.81225200582322299</v>
+      </c>
+      <c r="K12" s="78">
+        <f>exio_usa!L46</f>
+        <v>0.90874200468859301</v>
+      </c>
+      <c r="L12" s="78">
+        <f>exio_usa!M46</f>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="M12" s="78">
+        <f>exio_usa!N46</f>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="N12" s="78">
+        <f>exio_usa!O46</f>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="O12" s="78">
+        <f>exio_usa!P46</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="78">
+        <f>exio_usa!Q46</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="78">
+        <f>exio_usa!R46</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="78">
+        <f>exio_usa!S46</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="78">
+        <f>exio_usa!T46</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="78">
+        <f>exio_usa!U46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f>exio_usa!B47</f>
+        <v>331411</v>
+      </c>
+      <c r="B13" s="78" t="str">
+        <f>exio_usa!C47</f>
+        <v>Primary smelting and refining of copper</v>
+      </c>
+      <c r="C13" s="78">
+        <f>exio_usa!D47</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="78">
+        <f>exio_usa!E47</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="78">
+        <f>exio_usa!F47</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="78">
+        <f>exio_usa!G47</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="78">
+        <f>exio_usa!H47</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="78">
+        <f>exio_usa!I47</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="78">
+        <f>exio_usa!J47</f>
+        <v>0.99959212142745102</v>
+      </c>
+      <c r="J13" s="78">
+        <f>exio_usa!K47</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="78">
+        <f>exio_usa!L47</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="78">
+        <f>exio_usa!M47</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="M13" s="78">
+        <f>exio_usa!N47</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="N13" s="78">
+        <f>exio_usa!O47</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="O13" s="78">
+        <f>exio_usa!P47</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="78">
+        <f>exio_usa!Q47</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="78">
+        <f>exio_usa!R47</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="78">
+        <f>exio_usa!S47</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="78">
+        <f>exio_usa!T47</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="78">
+        <f>exio_usa!U47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f>exio_usa!B48</f>
+        <v>331420</v>
+      </c>
+      <c r="B14" s="78" t="str">
+        <f>exio_usa!C48</f>
+        <v>Copper rolling, drawing, extruding and alloying</v>
+      </c>
+      <c r="C14" s="78">
+        <f>exio_usa!D48</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="78">
+        <f>exio_usa!E48</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="78">
+        <f>exio_usa!F48</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="78">
+        <f>exio_usa!G48</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="78">
+        <f>exio_usa!H48</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="78">
+        <f>exio_usa!I48</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="78">
+        <f>exio_usa!J48</f>
+        <v>0.99959212142745102</v>
+      </c>
+      <c r="J14" s="78">
+        <f>exio_usa!K48</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="78">
+        <f>exio_usa!L48</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="78">
+        <f>exio_usa!M48</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="M14" s="78">
+        <f>exio_usa!N48</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="N14" s="78">
+        <f>exio_usa!O48</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="O14" s="78">
+        <f>exio_usa!P48</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="78">
+        <f>exio_usa!Q48</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="78">
+        <f>exio_usa!R48</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="78">
+        <f>exio_usa!S48</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="78">
+        <f>exio_usa!T48</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="78">
+        <f>exio_usa!U48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>exio_usa!B49</f>
+        <v>331490</v>
+      </c>
+      <c r="B15" s="78" t="str">
+        <f>exio_usa!C49</f>
+        <v>Nonferrous metal (except copper and aluminum) rolling, drawing, extruding and alloying</v>
+      </c>
+      <c r="C15" s="78">
+        <f>exio_usa!D49</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="78">
+        <f>exio_usa!E49</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="78">
+        <f>exio_usa!F49</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="78">
+        <f>exio_usa!G49</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="78">
+        <f>exio_usa!H49</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="78">
+        <f>exio_usa!I49</f>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="I15" s="78">
+        <f>exio_usa!J49</f>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="J15" s="78">
+        <f>exio_usa!K49</f>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="K15" s="78">
+        <f>exio_usa!L49</f>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="L15" s="78">
+        <f>exio_usa!M49</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="M15" s="78">
+        <f>exio_usa!N49</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N15" s="78">
+        <f>exio_usa!O49</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O15" s="78">
+        <f>exio_usa!P49</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="78">
+        <f>exio_usa!Q49</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="78">
+        <f>exio_usa!R49</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="78">
+        <f>exio_usa!S49</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="78">
+        <f>exio_usa!T49</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="78">
+        <f>exio_usa!U49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>exio_usa!B50</f>
+        <v>331510</v>
+      </c>
+      <c r="B16" s="78" t="str">
+        <f>exio_usa!C50</f>
+        <v>Ferrous metal foundries</v>
+      </c>
+      <c r="C16" s="78">
+        <f>exio_usa!D50</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="D16" s="78">
+        <f>exio_usa!E50</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E16" s="78">
+        <f>exio_usa!F50</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F16" s="78">
+        <f>exio_usa!G50</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G16" s="78">
+        <f>exio_usa!H50</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H16" s="78">
+        <f>exio_usa!I50</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="I16" s="78">
+        <f>exio_usa!J50</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="J16" s="78">
+        <f>exio_usa!K50</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="K16" s="78">
+        <f>exio_usa!L50</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="L16" s="78">
+        <f>exio_usa!M50</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="M16" s="78">
+        <f>exio_usa!N50</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N16" s="78">
+        <f>exio_usa!O50</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O16" s="78">
+        <f>exio_usa!P50</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="78">
+        <f>exio_usa!Q50</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="78">
+        <f>exio_usa!R50</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="78">
+        <f>exio_usa!S50</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="78">
+        <f>exio_usa!T50</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="78">
+        <f>exio_usa!U50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <f>exio_usa!B51</f>
+        <v>331520</v>
+      </c>
+      <c r="B17" s="78" t="str">
+        <f>exio_usa!C51</f>
+        <v>Nonferrous metal foundries</v>
+      </c>
+      <c r="C17" s="78">
+        <f>exio_usa!D51</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="78">
+        <f>exio_usa!E51</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="78">
+        <f>exio_usa!F51</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="78">
+        <f>exio_usa!G51</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="78">
+        <f>exio_usa!H51</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="78">
+        <f>exio_usa!I51</f>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="I17" s="78">
+        <f>exio_usa!J51</f>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="J17" s="78">
+        <f>exio_usa!K51</f>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="K17" s="78">
+        <f>exio_usa!L51</f>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="L17" s="78">
+        <f>exio_usa!M51</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="M17" s="78">
+        <f>exio_usa!N51</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N17" s="78">
+        <f>exio_usa!O51</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O17" s="78">
+        <f>exio_usa!P51</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="78">
+        <f>exio_usa!Q51</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="78">
+        <f>exio_usa!R51</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="78">
+        <f>exio_usa!S51</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="78">
+        <f>exio_usa!T51</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="78">
+        <f>exio_usa!U51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>exio_usa!B52</f>
+        <v>332114</v>
+      </c>
+      <c r="B18" s="78" t="str">
+        <f>exio_usa!C52</f>
+        <v>Custom roll forming</v>
+      </c>
+      <c r="C18" s="78">
+        <f>exio_usa!D52</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="D18" s="78">
+        <f>exio_usa!E52</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E18" s="78">
+        <f>exio_usa!F52</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F18" s="78">
+        <f>exio_usa!G52</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G18" s="78">
+        <f>exio_usa!H52</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H18" s="78">
+        <f>exio_usa!I52</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="I18" s="78">
+        <f>exio_usa!J52</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="J18" s="78">
+        <f>exio_usa!K52</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="K18" s="78">
+        <f>exio_usa!L52</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="L18" s="78">
+        <f>exio_usa!M52</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="M18" s="78">
+        <f>exio_usa!N52</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N18" s="78">
+        <f>exio_usa!O52</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O18" s="78">
+        <f>exio_usa!P52</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="78">
+        <f>exio_usa!Q52</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="78">
+        <f>exio_usa!R52</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="78">
+        <f>exio_usa!S52</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="78">
+        <f>exio_usa!T52</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="78">
+        <f>exio_usa!U52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f>exio_usa!B53</f>
+        <v>33211A</v>
+      </c>
+      <c r="B19" s="78" t="str">
+        <f>exio_usa!C53</f>
+        <v>All other forging, stamping, and sintering</v>
+      </c>
+      <c r="C19" s="78">
+        <f>exio_usa!D53</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="D19" s="78">
+        <f>exio_usa!E53</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E19" s="78">
+        <f>exio_usa!F53</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F19" s="78">
+        <f>exio_usa!G53</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G19" s="78">
+        <f>exio_usa!H53</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H19" s="78">
+        <f>exio_usa!I53</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="I19" s="78">
+        <f>exio_usa!J53</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="J19" s="78">
+        <f>exio_usa!K53</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="K19" s="78">
+        <f>exio_usa!L53</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="L19" s="78">
+        <f>exio_usa!M53</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="M19" s="78">
+        <f>exio_usa!N53</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N19" s="78">
+        <f>exio_usa!O53</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O19" s="78">
+        <f>exio_usa!P53</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="78">
+        <f>exio_usa!Q53</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="78">
+        <f>exio_usa!R53</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="78">
+        <f>exio_usa!S53</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="78">
+        <f>exio_usa!T53</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="78">
+        <f>exio_usa!U53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <f>exio_usa!B54</f>
+        <v>33211B</v>
+      </c>
+      <c r="B20" s="78" t="str">
+        <f>exio_usa!C54</f>
+        <v>Crown and closure manufacturing and metal stamping</v>
+      </c>
+      <c r="C20" s="78">
+        <f>exio_usa!D54</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="D20" s="78">
+        <f>exio_usa!E54</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E20" s="78">
+        <f>exio_usa!F54</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F20" s="78">
+        <f>exio_usa!G54</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G20" s="78">
+        <f>exio_usa!H54</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H20" s="78">
+        <f>exio_usa!I54</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="I20" s="78">
+        <f>exio_usa!J54</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="J20" s="78">
+        <f>exio_usa!K54</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="K20" s="78">
+        <f>exio_usa!L54</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="L20" s="78">
+        <f>exio_usa!M54</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="M20" s="78">
+        <f>exio_usa!N54</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N20" s="78">
+        <f>exio_usa!O54</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O20" s="78">
+        <f>exio_usa!P54</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="78">
+        <f>exio_usa!Q54</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="78">
+        <f>exio_usa!R54</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="78">
+        <f>exio_usa!S54</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="78">
+        <f>exio_usa!T54</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="78">
+        <f>exio_usa!U54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <f>exio_usa!B55</f>
+        <v>325211+325212</v>
+      </c>
+      <c r="B21" s="78" t="str">
+        <f>exio_usa!C55</f>
+        <v>Plastics material and resin manufacturing+Synthetic rubber manufacturing</v>
+      </c>
+      <c r="C21" s="78">
+        <f>exio_usa!D55</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="78">
+        <f>exio_usa!E55</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="78">
+        <f>exio_usa!F55</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="78">
+        <f>exio_usa!G55</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="78">
+        <f>exio_usa!H55</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="78">
+        <f>exio_usa!I55</f>
+        <v>0.8</v>
+      </c>
+      <c r="I21" s="78">
+        <f>exio_usa!J55</f>
+        <v>0.8</v>
+      </c>
+      <c r="J21" s="78">
+        <f>exio_usa!K55</f>
+        <v>0.8</v>
+      </c>
+      <c r="K21" s="78">
+        <f>exio_usa!L55</f>
+        <v>0.8</v>
+      </c>
+      <c r="L21" s="78">
+        <f>exio_usa!M55</f>
+        <v>0.7</v>
+      </c>
+      <c r="M21" s="78">
+        <f>exio_usa!N55</f>
+        <v>0.7</v>
+      </c>
+      <c r="N21" s="78">
+        <f>exio_usa!O55</f>
+        <v>0.7</v>
+      </c>
+      <c r="O21" s="78">
+        <f>exio_usa!P55</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="78">
+        <f>exio_usa!Q55</f>
+        <v>0.85</v>
+      </c>
+      <c r="Q21" s="78">
+        <f>exio_usa!R55</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="78">
+        <f>exio_usa!S55</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="78">
+        <f>exio_usa!T55</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="78">
+        <f>exio_usa!U55</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input_data/USA/Filter_2002_ExtAgg.xlsx
+++ b/input_data/USA/Filter_2002_ExtAgg.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F236253-0516-4924-AC59-7FE4D0E2F00C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF14B9A1-D237-4B14-90DD-62929609E35D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12228" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12228" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -547,7 +547,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="949">
   <si>
     <t>Oilseed farming</t>
   </si>
@@ -3382,9 +3382,6 @@
   </si>
   <si>
     <t>USA</t>
-  </si>
-  <si>
-    <t>Other buildungs</t>
   </si>
   <si>
     <t>Wood</t>
@@ -3844,9 +3841,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3873,9 +3867,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
@@ -3886,6 +3877,12 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -4292,26 +4289,26 @@
       <c r="B1" t="s">
         <v>287</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="77" t="s">
         <v>858</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
     </row>
     <row r="2" spans="1:28" ht="128.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -41979,8 +41976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BF9E16-534F-4AA2-AF69-0D132E9BC96F}">
   <dimension ref="A2:U55"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41990,352 +41987,352 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>889</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="43" t="s">
         <v>891</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="43" t="s">
         <v>892</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="43" t="s">
         <v>893</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="43" t="s">
         <v>894</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="43" t="s">
         <v>895</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="43" t="s">
         <v>896</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="43" t="s">
         <v>897</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="43" t="s">
         <v>898</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="43" t="s">
         <v>899</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="43" t="s">
         <v>900</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="43" t="s">
         <v>901</v>
       </c>
-      <c r="O6" s="44" t="s">
+      <c r="O6" s="43" t="s">
         <v>902</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="43" t="s">
         <v>903</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="Q6" s="44" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>905</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>906</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="43" t="s">
         <v>907</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="43" t="s">
         <v>908</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="43" t="s">
         <v>909</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="43" t="s">
         <v>910</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="43" t="s">
         <v>911</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="43" t="s">
         <v>912</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="L7" s="43" t="s">
         <v>913</v>
       </c>
-      <c r="M7" s="44" t="s">
+      <c r="M7" s="43" t="s">
         <v>914</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="43" t="s">
         <v>915</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="43" t="s">
         <v>916</v>
       </c>
-      <c r="P7" s="44" t="s">
+      <c r="P7" s="43" t="s">
         <v>917</v>
       </c>
-      <c r="Q7" s="45" t="s">
+      <c r="Q7" s="44" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>893</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>907</v>
       </c>
-      <c r="D8" s="47">
-        <v>0</v>
-      </c>
-      <c r="E8" s="48">
-        <v>0</v>
-      </c>
-      <c r="F8" s="48">
+      <c r="D8" s="46">
+        <v>0</v>
+      </c>
+      <c r="E8" s="47">
+        <v>0</v>
+      </c>
+      <c r="F8" s="47">
         <v>0.85</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="47">
         <v>0.6</v>
       </c>
-      <c r="H8" s="48">
-        <v>0</v>
-      </c>
-      <c r="I8" s="48">
-        <v>0</v>
-      </c>
-      <c r="J8" s="48">
-        <v>0</v>
-      </c>
-      <c r="K8" s="48">
-        <v>0</v>
-      </c>
-      <c r="L8" s="48">
-        <v>0</v>
-      </c>
-      <c r="M8" s="48">
-        <v>0</v>
-      </c>
-      <c r="N8" s="48">
-        <v>0</v>
-      </c>
-      <c r="O8" s="48">
-        <v>0</v>
-      </c>
-      <c r="P8" s="49">
+      <c r="H8" s="47">
+        <v>0</v>
+      </c>
+      <c r="I8" s="47">
+        <v>0</v>
+      </c>
+      <c r="J8" s="47">
+        <v>0</v>
+      </c>
+      <c r="K8" s="47">
+        <v>0</v>
+      </c>
+      <c r="L8" s="47">
+        <v>0</v>
+      </c>
+      <c r="M8" s="47">
+        <v>0</v>
+      </c>
+      <c r="N8" s="47">
+        <v>0</v>
+      </c>
+      <c r="O8" s="47">
+        <v>0</v>
+      </c>
+      <c r="P8" s="48">
         <v>0.7</v>
       </c>
-      <c r="Q8" s="50">
+      <c r="Q8" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>919</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="50" t="s">
         <v>920</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="51">
         <v>0.85</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="52">
         <v>0.85</v>
       </c>
-      <c r="F9" s="53">
-        <v>0</v>
-      </c>
-      <c r="G9" s="53">
-        <v>0</v>
-      </c>
-      <c r="H9" s="53">
-        <v>0</v>
-      </c>
-      <c r="I9" s="54">
+      <c r="F9" s="52">
+        <v>0</v>
+      </c>
+      <c r="G9" s="52">
+        <v>0</v>
+      </c>
+      <c r="H9" s="52">
+        <v>0</v>
+      </c>
+      <c r="I9" s="53">
         <v>0.8</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="52">
         <v>0.8</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="53">
         <v>0.8</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="52">
         <v>0.8</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="52">
         <v>0.8</v>
       </c>
-      <c r="N9" s="54">
+      <c r="N9" s="53">
         <v>0.8</v>
       </c>
-      <c r="O9" s="54">
+      <c r="O9" s="53">
         <v>0.8</v>
       </c>
-      <c r="P9" s="54">
+      <c r="P9" s="53">
         <v>0.7</v>
       </c>
-      <c r="Q9" s="55">
+      <c r="Q9" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>921</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="50" t="s">
         <v>922</v>
       </c>
-      <c r="D10" s="56">
-        <v>0</v>
-      </c>
-      <c r="E10" s="53">
-        <v>0</v>
-      </c>
-      <c r="F10" s="53">
-        <v>0</v>
-      </c>
-      <c r="G10" s="53">
-        <v>0</v>
-      </c>
-      <c r="H10" s="53">
-        <v>0</v>
-      </c>
-      <c r="I10" s="54">
+      <c r="D10" s="55">
+        <v>0</v>
+      </c>
+      <c r="E10" s="52">
+        <v>0</v>
+      </c>
+      <c r="F10" s="52">
+        <v>0</v>
+      </c>
+      <c r="G10" s="52">
+        <v>0</v>
+      </c>
+      <c r="H10" s="52">
+        <v>0</v>
+      </c>
+      <c r="I10" s="53">
         <v>0.8</v>
       </c>
-      <c r="J10" s="53">
+      <c r="J10" s="52">
         <v>0.8</v>
       </c>
-      <c r="K10" s="54">
+      <c r="K10" s="53">
         <v>0.8</v>
       </c>
-      <c r="L10" s="53">
+      <c r="L10" s="52">
         <v>0.8</v>
       </c>
-      <c r="M10" s="53">
+      <c r="M10" s="52">
         <v>0.8</v>
       </c>
-      <c r="N10" s="54">
+      <c r="N10" s="53">
         <v>0.8</v>
       </c>
-      <c r="O10" s="54">
+      <c r="O10" s="53">
         <v>0.8</v>
       </c>
-      <c r="P10" s="54">
+      <c r="P10" s="53">
         <v>0.7</v>
       </c>
-      <c r="Q10" s="55">
+      <c r="Q10" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>923</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>924</v>
       </c>
-      <c r="D11" s="56">
-        <v>0</v>
-      </c>
-      <c r="E11" s="53">
-        <v>0</v>
-      </c>
-      <c r="F11" s="53">
-        <v>0</v>
-      </c>
-      <c r="G11" s="53">
-        <v>0</v>
-      </c>
-      <c r="H11" s="53">
-        <v>0</v>
-      </c>
-      <c r="I11" s="54">
+      <c r="D11" s="55">
+        <v>0</v>
+      </c>
+      <c r="E11" s="52">
+        <v>0</v>
+      </c>
+      <c r="F11" s="52">
+        <v>0</v>
+      </c>
+      <c r="G11" s="52">
+        <v>0</v>
+      </c>
+      <c r="H11" s="52">
+        <v>0</v>
+      </c>
+      <c r="I11" s="53">
         <v>0.8</v>
       </c>
-      <c r="J11" s="53">
+      <c r="J11" s="52">
         <v>0.8</v>
       </c>
-      <c r="K11" s="54">
+      <c r="K11" s="53">
         <v>0.8</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="52">
         <v>0.8</v>
       </c>
-      <c r="M11" s="53">
+      <c r="M11" s="52">
         <v>0.8</v>
       </c>
-      <c r="N11" s="54">
+      <c r="N11" s="53">
         <v>0.8</v>
       </c>
-      <c r="O11" s="54">
+      <c r="O11" s="53">
         <v>0.8</v>
       </c>
-      <c r="P11" s="54">
+      <c r="P11" s="53">
         <v>0.7</v>
       </c>
-      <c r="Q11" s="55">
+      <c r="Q11" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>925</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="44" t="s">
         <v>926</v>
       </c>
-      <c r="D12" s="56">
-        <v>0</v>
-      </c>
-      <c r="E12" s="53">
-        <v>0</v>
-      </c>
-      <c r="F12" s="53">
-        <v>0</v>
-      </c>
-      <c r="G12" s="53">
-        <v>0</v>
-      </c>
-      <c r="H12" s="53">
-        <v>0</v>
-      </c>
-      <c r="I12" s="53">
-        <v>0</v>
-      </c>
-      <c r="J12" s="53">
-        <v>0</v>
-      </c>
-      <c r="K12" s="53">
-        <v>0</v>
-      </c>
-      <c r="L12" s="53">
-        <v>0</v>
-      </c>
-      <c r="M12" s="53">
-        <v>0</v>
-      </c>
-      <c r="N12" s="53">
-        <v>0</v>
-      </c>
-      <c r="O12" s="53">
-        <v>0</v>
-      </c>
-      <c r="P12" s="53">
+      <c r="D12" s="55">
+        <v>0</v>
+      </c>
+      <c r="E12" s="52">
+        <v>0</v>
+      </c>
+      <c r="F12" s="52">
+        <v>0</v>
+      </c>
+      <c r="G12" s="52">
+        <v>0</v>
+      </c>
+      <c r="H12" s="52">
+        <v>0</v>
+      </c>
+      <c r="I12" s="52">
+        <v>0</v>
+      </c>
+      <c r="J12" s="52">
+        <v>0</v>
+      </c>
+      <c r="K12" s="52">
+        <v>0</v>
+      </c>
+      <c r="L12" s="52">
+        <v>0</v>
+      </c>
+      <c r="M12" s="52">
+        <v>0</v>
+      </c>
+      <c r="N12" s="52">
+        <v>0</v>
+      </c>
+      <c r="O12" s="52">
+        <v>0</v>
+      </c>
+      <c r="P12" s="52">
         <v>0.7</v>
       </c>
-      <c r="Q12" s="55">
+      <c r="Q12" s="54">
         <v>0</v>
       </c>
     </row>
@@ -42343,52 +42340,52 @@
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>927</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="56" t="s">
         <v>928</v>
       </c>
-      <c r="D13" s="56">
-        <v>0</v>
-      </c>
-      <c r="E13" s="53">
-        <v>0</v>
-      </c>
-      <c r="F13" s="53">
-        <v>0</v>
-      </c>
-      <c r="G13" s="53">
-        <v>0</v>
-      </c>
-      <c r="H13" s="53">
+      <c r="D13" s="55">
+        <v>0</v>
+      </c>
+      <c r="E13" s="52">
+        <v>0</v>
+      </c>
+      <c r="F13" s="52">
+        <v>0</v>
+      </c>
+      <c r="G13" s="52">
+        <v>0</v>
+      </c>
+      <c r="H13" s="52">
         <v>0.92631909366008403</v>
       </c>
-      <c r="I13" s="54">
+      <c r="I13" s="53">
         <v>0.86927271702207298</v>
       </c>
-      <c r="J13" s="53">
+      <c r="J13" s="52">
         <v>0.89004126278255302</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K13" s="53">
         <v>0.87138156437019998</v>
       </c>
-      <c r="L13" s="53">
+      <c r="L13" s="52">
         <v>0.88642733207046298</v>
       </c>
-      <c r="M13" s="53">
+      <c r="M13" s="52">
         <v>0.88129071613306198</v>
       </c>
-      <c r="N13" s="54">
+      <c r="N13" s="53">
         <v>0.81809329894973004</v>
       </c>
-      <c r="O13" s="54">
+      <c r="O13" s="53">
         <v>0.89771421948548102</v>
       </c>
-      <c r="P13" s="54">
+      <c r="P13" s="53">
         <v>0.95978881465296295</v>
       </c>
-      <c r="Q13" s="58">
+      <c r="Q13" s="57">
         <v>0.94166040230902204</v>
       </c>
     </row>
@@ -42396,52 +42393,52 @@
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>929</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="56" t="s">
         <v>930</v>
       </c>
-      <c r="D14" s="56">
-        <v>0</v>
-      </c>
-      <c r="E14" s="53">
-        <v>0</v>
-      </c>
-      <c r="F14" s="53">
-        <v>0</v>
-      </c>
-      <c r="G14" s="53">
-        <v>0</v>
-      </c>
-      <c r="H14" s="53">
+      <c r="D14" s="55">
+        <v>0</v>
+      </c>
+      <c r="E14" s="52">
+        <v>0</v>
+      </c>
+      <c r="F14" s="52">
+        <v>0</v>
+      </c>
+      <c r="G14" s="52">
+        <v>0</v>
+      </c>
+      <c r="H14" s="52">
         <v>0.8</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="52">
         <v>0.8</v>
       </c>
-      <c r="J14" s="53">
+      <c r="J14" s="52">
         <v>0.8</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="52">
         <v>0.8</v>
       </c>
-      <c r="L14" s="53">
+      <c r="L14" s="52">
         <v>0.8</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="52">
         <v>0.8</v>
       </c>
-      <c r="N14" s="53">
-        <v>0</v>
-      </c>
-      <c r="O14" s="53">
-        <v>0</v>
-      </c>
-      <c r="P14" s="53">
+      <c r="N14" s="52">
+        <v>0</v>
+      </c>
+      <c r="O14" s="52">
+        <v>0</v>
+      </c>
+      <c r="P14" s="52">
         <v>0.7</v>
       </c>
-      <c r="Q14" s="55">
+      <c r="Q14" s="54">
         <v>0</v>
       </c>
     </row>
@@ -42449,52 +42446,52 @@
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>931</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="56" t="s">
         <v>932</v>
       </c>
-      <c r="D15" s="56">
-        <v>0</v>
-      </c>
-      <c r="E15" s="53">
-        <v>0</v>
-      </c>
-      <c r="F15" s="53">
-        <v>0</v>
-      </c>
-      <c r="G15" s="53">
-        <v>0</v>
-      </c>
-      <c r="H15" s="53">
+      <c r="D15" s="55">
+        <v>0</v>
+      </c>
+      <c r="E15" s="52">
+        <v>0</v>
+      </c>
+      <c r="F15" s="52">
+        <v>0</v>
+      </c>
+      <c r="G15" s="52">
+        <v>0</v>
+      </c>
+      <c r="H15" s="52">
         <v>0.98800605724956503</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="53">
         <v>0.99877498740551296</v>
       </c>
-      <c r="J15" s="53">
-        <v>1</v>
-      </c>
-      <c r="K15" s="54">
-        <v>1</v>
-      </c>
-      <c r="L15" s="53">
-        <v>1</v>
-      </c>
-      <c r="M15" s="53">
-        <v>1</v>
-      </c>
-      <c r="N15" s="54">
-        <v>1</v>
-      </c>
-      <c r="O15" s="54">
+      <c r="J15" s="52">
+        <v>1</v>
+      </c>
+      <c r="K15" s="53">
+        <v>1</v>
+      </c>
+      <c r="L15" s="52">
+        <v>1</v>
+      </c>
+      <c r="M15" s="52">
+        <v>1</v>
+      </c>
+      <c r="N15" s="53">
+        <v>1</v>
+      </c>
+      <c r="O15" s="53">
         <v>0.999156412809172</v>
       </c>
-      <c r="P15" s="54">
+      <c r="P15" s="53">
         <v>0.98009206796423698</v>
       </c>
-      <c r="Q15" s="58">
+      <c r="Q15" s="57">
         <v>1</v>
       </c>
     </row>
@@ -42502,52 +42499,52 @@
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>933</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="56" t="s">
         <v>934</v>
       </c>
-      <c r="D16" s="56">
-        <v>0</v>
-      </c>
-      <c r="E16" s="53">
-        <v>0</v>
-      </c>
-      <c r="F16" s="53">
-        <v>0</v>
-      </c>
-      <c r="G16" s="53">
-        <v>0</v>
-      </c>
-      <c r="H16" s="53">
+      <c r="D16" s="55">
+        <v>0</v>
+      </c>
+      <c r="E16" s="52">
+        <v>0</v>
+      </c>
+      <c r="F16" s="52">
+        <v>0</v>
+      </c>
+      <c r="G16" s="52">
+        <v>0</v>
+      </c>
+      <c r="H16" s="52">
         <v>0.93196078849751895</v>
       </c>
-      <c r="I16" s="54">
+      <c r="I16" s="53">
         <v>0.90542002153861501</v>
       </c>
-      <c r="J16" s="53">
+      <c r="J16" s="52">
         <v>0.92506224740253995</v>
       </c>
-      <c r="K16" s="54">
+      <c r="K16" s="53">
         <v>0.91188541832382797</v>
       </c>
-      <c r="L16" s="53">
+      <c r="L16" s="52">
         <v>0.95784981126300694</v>
       </c>
-      <c r="M16" s="53">
+      <c r="M16" s="52">
         <v>0.92480067633781304</v>
       </c>
-      <c r="N16" s="54">
+      <c r="N16" s="53">
         <v>0.81225200582322299</v>
       </c>
-      <c r="O16" s="54">
+      <c r="O16" s="53">
         <v>0.90874200468859301</v>
       </c>
-      <c r="P16" s="54">
+      <c r="P16" s="53">
         <v>0.98460249995958704</v>
       </c>
-      <c r="Q16" s="58">
+      <c r="Q16" s="57">
         <v>0.95200977870694903</v>
       </c>
     </row>
@@ -42555,52 +42552,52 @@
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="56" t="s">
         <v>936</v>
       </c>
-      <c r="D17" s="56">
-        <v>0</v>
-      </c>
-      <c r="E17" s="53">
-        <v>0</v>
-      </c>
-      <c r="F17" s="53">
-        <v>0</v>
-      </c>
-      <c r="G17" s="53">
-        <v>0</v>
-      </c>
-      <c r="H17" s="53">
+      <c r="D17" s="55">
+        <v>0</v>
+      </c>
+      <c r="E17" s="52">
+        <v>0</v>
+      </c>
+      <c r="F17" s="52">
+        <v>0</v>
+      </c>
+      <c r="G17" s="52">
+        <v>0</v>
+      </c>
+      <c r="H17" s="52">
         <v>0.99766367004677803</v>
       </c>
-      <c r="I17" s="54">
+      <c r="I17" s="53">
         <v>0.99959212142745102</v>
       </c>
-      <c r="J17" s="53">
-        <v>1</v>
-      </c>
-      <c r="K17" s="54">
-        <v>1</v>
-      </c>
-      <c r="L17" s="53">
+      <c r="J17" s="52">
+        <v>1</v>
+      </c>
+      <c r="K17" s="53">
+        <v>1</v>
+      </c>
+      <c r="L17" s="52">
         <v>0.99998577931585997</v>
       </c>
-      <c r="M17" s="53">
+      <c r="M17" s="52">
         <v>0.99987357745073902</v>
       </c>
-      <c r="N17" s="54">
-        <v>1</v>
-      </c>
-      <c r="O17" s="54">
-        <v>1</v>
-      </c>
-      <c r="P17" s="54">
+      <c r="N17" s="53">
+        <v>1</v>
+      </c>
+      <c r="O17" s="53">
+        <v>1</v>
+      </c>
+      <c r="P17" s="53">
         <v>0.99517688048449904</v>
       </c>
-      <c r="Q17" s="58">
+      <c r="Q17" s="57">
         <v>1</v>
       </c>
     </row>
@@ -42608,52 +42605,52 @@
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>937</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="56" t="s">
         <v>938</v>
       </c>
-      <c r="D18" s="56">
-        <v>0</v>
-      </c>
-      <c r="E18" s="53">
-        <v>0</v>
-      </c>
-      <c r="F18" s="53">
-        <v>0</v>
-      </c>
-      <c r="G18" s="53">
-        <v>0</v>
-      </c>
-      <c r="H18" s="53">
+      <c r="D18" s="55">
+        <v>0</v>
+      </c>
+      <c r="E18" s="52">
+        <v>0</v>
+      </c>
+      <c r="F18" s="52">
+        <v>0</v>
+      </c>
+      <c r="G18" s="52">
+        <v>0</v>
+      </c>
+      <c r="H18" s="52">
         <v>0.99990715571585498</v>
       </c>
-      <c r="I18" s="54">
+      <c r="I18" s="53">
         <v>0.99996338425751496</v>
       </c>
-      <c r="J18" s="53">
+      <c r="J18" s="52">
         <v>0.999829857254386</v>
       </c>
-      <c r="K18" s="54">
+      <c r="K18" s="53">
         <v>0.99949496003205796</v>
       </c>
-      <c r="L18" s="53">
+      <c r="L18" s="52">
         <v>0.99991695252840795</v>
       </c>
-      <c r="M18" s="53">
+      <c r="M18" s="52">
         <v>0.99969184027675295</v>
       </c>
-      <c r="N18" s="54">
+      <c r="N18" s="53">
         <v>0.99974574415004602</v>
       </c>
-      <c r="O18" s="54">
+      <c r="O18" s="53">
         <v>0.99996712399807097</v>
       </c>
-      <c r="P18" s="54">
+      <c r="P18" s="53">
         <v>0.99992430312491298</v>
       </c>
-      <c r="Q18" s="58">
+      <c r="Q18" s="57">
         <v>1</v>
       </c>
     </row>
@@ -42661,52 +42658,52 @@
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="44" t="s">
         <v>939</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="56" t="s">
         <v>940</v>
       </c>
-      <c r="D19" s="56">
-        <v>0</v>
-      </c>
-      <c r="E19" s="53">
-        <v>0</v>
-      </c>
-      <c r="F19" s="53">
-        <v>0</v>
-      </c>
-      <c r="G19" s="53">
-        <v>0</v>
-      </c>
-      <c r="H19" s="53">
+      <c r="D19" s="55">
+        <v>0</v>
+      </c>
+      <c r="E19" s="52">
+        <v>0</v>
+      </c>
+      <c r="F19" s="52">
+        <v>0</v>
+      </c>
+      <c r="G19" s="52">
+        <v>0</v>
+      </c>
+      <c r="H19" s="52">
         <v>0.8</v>
       </c>
-      <c r="I19" s="53">
+      <c r="I19" s="52">
         <v>0.8</v>
       </c>
-      <c r="J19" s="53">
+      <c r="J19" s="52">
         <v>0.8</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="52">
         <v>0.8</v>
       </c>
-      <c r="L19" s="53">
+      <c r="L19" s="52">
         <v>0.8</v>
       </c>
-      <c r="M19" s="53">
+      <c r="M19" s="52">
         <v>0.8</v>
       </c>
-      <c r="N19" s="53">
-        <v>0</v>
-      </c>
-      <c r="O19" s="53">
-        <v>0</v>
-      </c>
-      <c r="P19" s="53">
+      <c r="N19" s="52">
+        <v>0</v>
+      </c>
+      <c r="O19" s="52">
+        <v>0</v>
+      </c>
+      <c r="P19" s="52">
         <v>0.7</v>
       </c>
-      <c r="Q19" s="55">
+      <c r="Q19" s="54">
         <v>0</v>
       </c>
     </row>
@@ -42714,52 +42711,52 @@
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>895</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="56" t="s">
         <v>909</v>
       </c>
-      <c r="D20" s="56">
-        <v>0</v>
-      </c>
-      <c r="E20" s="53">
-        <v>0</v>
-      </c>
-      <c r="F20" s="53">
-        <v>0</v>
-      </c>
-      <c r="G20" s="53">
-        <v>0</v>
-      </c>
-      <c r="H20" s="53">
+      <c r="D20" s="55">
+        <v>0</v>
+      </c>
+      <c r="E20" s="52">
+        <v>0</v>
+      </c>
+      <c r="F20" s="52">
+        <v>0</v>
+      </c>
+      <c r="G20" s="52">
+        <v>0</v>
+      </c>
+      <c r="H20" s="52">
         <v>0.93906914981729195</v>
       </c>
-      <c r="I20" s="53">
-        <v>1</v>
-      </c>
-      <c r="J20" s="53">
-        <v>1</v>
-      </c>
-      <c r="K20" s="53">
-        <v>1</v>
-      </c>
-      <c r="L20" s="53">
-        <v>1</v>
-      </c>
-      <c r="M20" s="53">
-        <v>1</v>
-      </c>
-      <c r="N20" s="53">
-        <v>1</v>
-      </c>
-      <c r="O20" s="53">
-        <v>1</v>
-      </c>
-      <c r="P20" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="55">
+      <c r="I20" s="52">
+        <v>1</v>
+      </c>
+      <c r="J20" s="52">
+        <v>1</v>
+      </c>
+      <c r="K20" s="52">
+        <v>1</v>
+      </c>
+      <c r="L20" s="52">
+        <v>1</v>
+      </c>
+      <c r="M20" s="52">
+        <v>1</v>
+      </c>
+      <c r="N20" s="52">
+        <v>1</v>
+      </c>
+      <c r="O20" s="52">
+        <v>1</v>
+      </c>
+      <c r="P20" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="54">
         <v>1</v>
       </c>
     </row>
@@ -42767,73 +42764,73 @@
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="55"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="54"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="44" t="s">
         <v>896</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="44" t="s">
         <v>910</v>
       </c>
-      <c r="D22" s="60">
-        <v>0</v>
-      </c>
-      <c r="E22" s="61">
-        <v>0</v>
-      </c>
-      <c r="F22" s="61">
-        <v>0</v>
-      </c>
-      <c r="G22" s="61">
-        <v>0</v>
-      </c>
-      <c r="H22" s="61">
+      <c r="D22" s="59">
+        <v>0</v>
+      </c>
+      <c r="E22" s="60">
+        <v>0</v>
+      </c>
+      <c r="F22" s="60">
+        <v>0</v>
+      </c>
+      <c r="G22" s="60">
+        <v>0</v>
+      </c>
+      <c r="H22" s="60">
         <v>0.99919911626622504</v>
       </c>
-      <c r="I22" s="61">
+      <c r="I22" s="60">
         <v>0.87677531783260598</v>
       </c>
-      <c r="J22" s="61">
+      <c r="J22" s="60">
         <v>0.99934833441944304</v>
       </c>
-      <c r="K22" s="61">
+      <c r="K22" s="60">
         <v>0.99081651699607998</v>
       </c>
-      <c r="L22" s="61">
+      <c r="L22" s="60">
         <v>0.99984188056712198</v>
       </c>
-      <c r="M22" s="61">
+      <c r="M22" s="60">
         <v>0.95856711264566297</v>
       </c>
-      <c r="N22" s="61">
+      <c r="N22" s="60">
         <v>0.97927689954939101</v>
       </c>
-      <c r="O22" s="61">
+      <c r="O22" s="60">
         <v>0.98477251797624299</v>
       </c>
-      <c r="P22" s="53">
+      <c r="P22" s="52">
         <v>0.99956726608327695</v>
       </c>
-      <c r="Q22" s="62">
+      <c r="Q22" s="61">
         <v>1</v>
       </c>
     </row>
@@ -42841,52 +42838,52 @@
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="44" t="s">
         <v>897</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="44" t="s">
         <v>911</v>
       </c>
-      <c r="D23" s="60">
-        <v>0</v>
-      </c>
-      <c r="E23" s="61">
-        <v>0</v>
-      </c>
-      <c r="F23" s="61">
-        <v>0</v>
-      </c>
-      <c r="G23" s="61">
-        <v>0</v>
-      </c>
-      <c r="H23" s="61">
-        <v>1</v>
-      </c>
-      <c r="I23" s="61">
+      <c r="D23" s="59">
+        <v>0</v>
+      </c>
+      <c r="E23" s="60">
+        <v>0</v>
+      </c>
+      <c r="F23" s="60">
+        <v>0</v>
+      </c>
+      <c r="G23" s="60">
+        <v>0</v>
+      </c>
+      <c r="H23" s="60">
+        <v>1</v>
+      </c>
+      <c r="I23" s="60">
         <v>0.99483779676117601</v>
       </c>
-      <c r="J23" s="61">
+      <c r="J23" s="60">
         <v>0.93729264738237394</v>
       </c>
-      <c r="K23" s="61">
-        <v>1</v>
-      </c>
-      <c r="L23" s="61">
+      <c r="K23" s="60">
+        <v>1</v>
+      </c>
+      <c r="L23" s="60">
         <v>0.99980424661399503</v>
       </c>
-      <c r="M23" s="61">
-        <v>1</v>
-      </c>
-      <c r="N23" s="61">
-        <v>1</v>
-      </c>
-      <c r="O23" s="61">
-        <v>1</v>
-      </c>
-      <c r="P23" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="62">
+      <c r="M23" s="60">
+        <v>1</v>
+      </c>
+      <c r="N23" s="60">
+        <v>1</v>
+      </c>
+      <c r="O23" s="60">
+        <v>1</v>
+      </c>
+      <c r="P23" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="61">
         <v>0.83333333333333304</v>
       </c>
     </row>
@@ -42894,52 +42891,52 @@
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="44" t="s">
         <v>898</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="44" t="s">
         <v>912</v>
       </c>
-      <c r="D24" s="60">
-        <v>0</v>
-      </c>
-      <c r="E24" s="61">
-        <v>0</v>
-      </c>
-      <c r="F24" s="61">
-        <v>0</v>
-      </c>
-      <c r="G24" s="61">
-        <v>0</v>
-      </c>
-      <c r="H24" s="61">
-        <v>1</v>
-      </c>
-      <c r="I24" s="61">
-        <v>1</v>
-      </c>
-      <c r="J24" s="61">
-        <v>1</v>
-      </c>
-      <c r="K24" s="61">
-        <v>1</v>
-      </c>
-      <c r="L24" s="61">
-        <v>1</v>
-      </c>
-      <c r="M24" s="61">
-        <v>1</v>
-      </c>
-      <c r="N24" s="61">
-        <v>1</v>
-      </c>
-      <c r="O24" s="61">
-        <v>1</v>
-      </c>
-      <c r="P24" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="62">
+      <c r="D24" s="59">
+        <v>0</v>
+      </c>
+      <c r="E24" s="60">
+        <v>0</v>
+      </c>
+      <c r="F24" s="60">
+        <v>0</v>
+      </c>
+      <c r="G24" s="60">
+        <v>0</v>
+      </c>
+      <c r="H24" s="60">
+        <v>1</v>
+      </c>
+      <c r="I24" s="60">
+        <v>1</v>
+      </c>
+      <c r="J24" s="60">
+        <v>1</v>
+      </c>
+      <c r="K24" s="60">
+        <v>1</v>
+      </c>
+      <c r="L24" s="60">
+        <v>1</v>
+      </c>
+      <c r="M24" s="60">
+        <v>1</v>
+      </c>
+      <c r="N24" s="60">
+        <v>1</v>
+      </c>
+      <c r="O24" s="60">
+        <v>1</v>
+      </c>
+      <c r="P24" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="61">
         <v>1</v>
       </c>
     </row>
@@ -42947,52 +42944,52 @@
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="44" t="s">
         <v>899</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="44" t="s">
         <v>913</v>
       </c>
-      <c r="D25" s="60">
-        <v>0</v>
-      </c>
-      <c r="E25" s="61">
-        <v>0</v>
-      </c>
-      <c r="F25" s="61">
-        <v>0</v>
-      </c>
-      <c r="G25" s="61">
-        <v>0</v>
-      </c>
-      <c r="H25" s="61">
-        <v>1</v>
-      </c>
-      <c r="I25" s="61">
-        <v>1</v>
-      </c>
-      <c r="J25" s="61">
-        <v>1</v>
-      </c>
-      <c r="K25" s="61">
-        <v>1</v>
-      </c>
-      <c r="L25" s="61">
-        <v>1</v>
-      </c>
-      <c r="M25" s="61">
-        <v>1</v>
-      </c>
-      <c r="N25" s="61">
-        <v>1</v>
-      </c>
-      <c r="O25" s="61">
-        <v>1</v>
-      </c>
-      <c r="P25" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="62">
+      <c r="D25" s="59">
+        <v>0</v>
+      </c>
+      <c r="E25" s="60">
+        <v>0</v>
+      </c>
+      <c r="F25" s="60">
+        <v>0</v>
+      </c>
+      <c r="G25" s="60">
+        <v>0</v>
+      </c>
+      <c r="H25" s="60">
+        <v>1</v>
+      </c>
+      <c r="I25" s="60">
+        <v>1</v>
+      </c>
+      <c r="J25" s="60">
+        <v>1</v>
+      </c>
+      <c r="K25" s="60">
+        <v>1</v>
+      </c>
+      <c r="L25" s="60">
+        <v>1</v>
+      </c>
+      <c r="M25" s="60">
+        <v>1</v>
+      </c>
+      <c r="N25" s="60">
+        <v>1</v>
+      </c>
+      <c r="O25" s="60">
+        <v>1</v>
+      </c>
+      <c r="P25" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="61">
         <v>0.94234466577596099</v>
       </c>
     </row>
@@ -43000,52 +42997,52 @@
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="44" t="s">
         <v>900</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="44" t="s">
         <v>914</v>
       </c>
-      <c r="D26" s="60">
-        <v>0</v>
-      </c>
-      <c r="E26" s="61">
-        <v>0</v>
-      </c>
-      <c r="F26" s="61">
-        <v>0</v>
-      </c>
-      <c r="G26" s="61">
-        <v>0</v>
-      </c>
-      <c r="H26" s="61">
-        <v>1</v>
-      </c>
-      <c r="I26" s="61">
-        <v>1</v>
-      </c>
-      <c r="J26" s="61">
-        <v>1</v>
-      </c>
-      <c r="K26" s="61">
-        <v>1</v>
-      </c>
-      <c r="L26" s="61">
-        <v>1</v>
-      </c>
-      <c r="M26" s="61">
-        <v>1</v>
-      </c>
-      <c r="N26" s="61">
-        <v>1</v>
-      </c>
-      <c r="O26" s="61">
-        <v>1</v>
-      </c>
-      <c r="P26" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="62">
+      <c r="D26" s="59">
+        <v>0</v>
+      </c>
+      <c r="E26" s="60">
+        <v>0</v>
+      </c>
+      <c r="F26" s="60">
+        <v>0</v>
+      </c>
+      <c r="G26" s="60">
+        <v>0</v>
+      </c>
+      <c r="H26" s="60">
+        <v>1</v>
+      </c>
+      <c r="I26" s="60">
+        <v>1</v>
+      </c>
+      <c r="J26" s="60">
+        <v>1</v>
+      </c>
+      <c r="K26" s="60">
+        <v>1</v>
+      </c>
+      <c r="L26" s="60">
+        <v>1</v>
+      </c>
+      <c r="M26" s="60">
+        <v>1</v>
+      </c>
+      <c r="N26" s="60">
+        <v>1</v>
+      </c>
+      <c r="O26" s="60">
+        <v>1</v>
+      </c>
+      <c r="P26" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="61">
         <v>1</v>
       </c>
     </row>
@@ -43053,52 +43050,52 @@
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="44" t="s">
         <v>901</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="44" t="s">
         <v>915</v>
       </c>
-      <c r="D27" s="60">
-        <v>0</v>
-      </c>
-      <c r="E27" s="61">
-        <v>0</v>
-      </c>
-      <c r="F27" s="61">
-        <v>0</v>
-      </c>
-      <c r="G27" s="61">
-        <v>0</v>
-      </c>
-      <c r="H27" s="61">
-        <v>1</v>
-      </c>
-      <c r="I27" s="61">
-        <v>1</v>
-      </c>
-      <c r="J27" s="61">
-        <v>1</v>
-      </c>
-      <c r="K27" s="61">
-        <v>1</v>
-      </c>
-      <c r="L27" s="61">
-        <v>1</v>
-      </c>
-      <c r="M27" s="61">
-        <v>1</v>
-      </c>
-      <c r="N27" s="61">
-        <v>1</v>
-      </c>
-      <c r="O27" s="61">
-        <v>1</v>
-      </c>
-      <c r="P27" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="62">
+      <c r="D27" s="59">
+        <v>0</v>
+      </c>
+      <c r="E27" s="60">
+        <v>0</v>
+      </c>
+      <c r="F27" s="60">
+        <v>0</v>
+      </c>
+      <c r="G27" s="60">
+        <v>0</v>
+      </c>
+      <c r="H27" s="60">
+        <v>1</v>
+      </c>
+      <c r="I27" s="60">
+        <v>1</v>
+      </c>
+      <c r="J27" s="60">
+        <v>1</v>
+      </c>
+      <c r="K27" s="60">
+        <v>1</v>
+      </c>
+      <c r="L27" s="60">
+        <v>1</v>
+      </c>
+      <c r="M27" s="60">
+        <v>1</v>
+      </c>
+      <c r="N27" s="60">
+        <v>1</v>
+      </c>
+      <c r="O27" s="60">
+        <v>1</v>
+      </c>
+      <c r="P27" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="61">
         <v>1</v>
       </c>
     </row>
@@ -43106,52 +43103,52 @@
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="44" t="s">
         <v>902</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="44" t="s">
         <v>916</v>
       </c>
-      <c r="D28" s="60">
-        <v>0</v>
-      </c>
-      <c r="E28" s="61">
-        <v>0</v>
-      </c>
-      <c r="F28" s="61">
-        <v>0</v>
-      </c>
-      <c r="G28" s="61">
-        <v>0</v>
-      </c>
-      <c r="H28" s="61">
-        <v>1</v>
-      </c>
-      <c r="I28" s="61">
-        <v>1</v>
-      </c>
-      <c r="J28" s="61">
-        <v>1</v>
-      </c>
-      <c r="K28" s="61">
-        <v>1</v>
-      </c>
-      <c r="L28" s="61">
-        <v>1</v>
-      </c>
-      <c r="M28" s="61">
-        <v>1</v>
-      </c>
-      <c r="N28" s="61">
-        <v>1</v>
-      </c>
-      <c r="O28" s="61">
-        <v>1</v>
-      </c>
-      <c r="P28" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="62">
+      <c r="D28" s="59">
+        <v>0</v>
+      </c>
+      <c r="E28" s="60">
+        <v>0</v>
+      </c>
+      <c r="F28" s="60">
+        <v>0</v>
+      </c>
+      <c r="G28" s="60">
+        <v>0</v>
+      </c>
+      <c r="H28" s="60">
+        <v>1</v>
+      </c>
+      <c r="I28" s="60">
+        <v>1</v>
+      </c>
+      <c r="J28" s="60">
+        <v>1</v>
+      </c>
+      <c r="K28" s="60">
+        <v>1</v>
+      </c>
+      <c r="L28" s="60">
+        <v>1</v>
+      </c>
+      <c r="M28" s="60">
+        <v>1</v>
+      </c>
+      <c r="N28" s="60">
+        <v>1</v>
+      </c>
+      <c r="O28" s="60">
+        <v>1</v>
+      </c>
+      <c r="P28" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="61">
         <v>1</v>
       </c>
     </row>
@@ -43159,59 +43156,59 @@
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="44" t="s">
         <v>903</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="44" t="s">
         <v>917</v>
       </c>
-      <c r="D29" s="63">
-        <v>0</v>
-      </c>
-      <c r="E29" s="64">
-        <v>0</v>
-      </c>
-      <c r="F29" s="64">
-        <v>0</v>
-      </c>
-      <c r="G29" s="64">
-        <v>0</v>
-      </c>
-      <c r="H29" s="64">
-        <v>1</v>
-      </c>
-      <c r="I29" s="64">
-        <v>1</v>
-      </c>
-      <c r="J29" s="64">
-        <v>1</v>
-      </c>
-      <c r="K29" s="64">
-        <v>1</v>
-      </c>
-      <c r="L29" s="64">
-        <v>1</v>
-      </c>
-      <c r="M29" s="64">
-        <v>1</v>
-      </c>
-      <c r="N29" s="64">
-        <v>1</v>
-      </c>
-      <c r="O29" s="64">
-        <v>1</v>
-      </c>
-      <c r="P29" s="65">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="66">
+      <c r="D29" s="62">
+        <v>0</v>
+      </c>
+      <c r="E29" s="63">
+        <v>0</v>
+      </c>
+      <c r="F29" s="63">
+        <v>0</v>
+      </c>
+      <c r="G29" s="63">
+        <v>0</v>
+      </c>
+      <c r="H29" s="63">
+        <v>1</v>
+      </c>
+      <c r="I29" s="63">
+        <v>1</v>
+      </c>
+      <c r="J29" s="63">
+        <v>1</v>
+      </c>
+      <c r="K29" s="63">
+        <v>1</v>
+      </c>
+      <c r="L29" s="63">
+        <v>1</v>
+      </c>
+      <c r="M29" s="63">
+        <v>1</v>
+      </c>
+      <c r="N29" s="63">
+        <v>1</v>
+      </c>
+      <c r="O29" s="63">
+        <v>1</v>
+      </c>
+      <c r="P29" s="64">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="P30" s="67"/>
+      <c r="P30" s="66"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
@@ -43222,18 +43219,18 @@
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="42" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="78" t="s">
         <v>942</v>
       </c>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
       <c r="I34" t="s">
         <v>303</v>
       </c>
@@ -43246,11 +43243,11 @@
       <c r="L34" t="s">
         <v>284</v>
       </c>
-      <c r="M34" s="68" t="s">
+      <c r="M34" s="78" t="s">
         <v>943</v>
       </c>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
       <c r="Q34" t="s">
         <v>290</v>
       </c>
@@ -43266,7 +43263,7 @@
         <v>301</v>
       </c>
       <c r="F35" t="s">
-        <v>945</v>
+        <v>859</v>
       </c>
       <c r="G35" t="s">
         <v>857</v>
@@ -43315,1124 +43312,1124 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
-        <v>946</v>
-      </c>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="45" t="s">
+        <v>945</v>
+      </c>
+      <c r="B36" s="44" t="s">
         <v>874</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="44" t="s">
         <v>875</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70">
+      <c r="D36" s="67"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68">
         <f t="shared" ref="M36:O37" si="0">$P$8</f>
         <v>0.7</v>
       </c>
-      <c r="N36" s="70">
+      <c r="N36" s="68">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="O36" s="70">
+      <c r="O36" s="68">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="P36" s="70"/>
-      <c r="Q36" s="70"/>
-      <c r="R36" s="70"/>
-      <c r="S36" s="70"/>
-      <c r="T36" s="70"/>
-      <c r="U36" s="71"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="69"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="46" t="s">
-        <v>946</v>
-      </c>
-      <c r="B37" s="45" t="s">
+      <c r="A37" s="45" t="s">
+        <v>945</v>
+      </c>
+      <c r="B37" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="44" t="s">
         <v>349</v>
       </c>
-      <c r="D37" s="72"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73">
+      <c r="D37" s="70"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="N37" s="73">
+      <c r="N37" s="71">
         <f>$P$8</f>
         <v>0.7</v>
       </c>
-      <c r="O37" s="73">
+      <c r="O37" s="71">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="73"/>
-      <c r="U37" s="74"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="72"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="46" t="s">
-        <v>946</v>
-      </c>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="45" t="s">
+        <v>945</v>
+      </c>
+      <c r="B38" s="44" t="s">
         <v>534</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="44" t="s">
         <v>350</v>
       </c>
-      <c r="D38" s="72"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="73">
+      <c r="D38" s="70"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71">
         <f>$P$8</f>
         <v>0.7</v>
       </c>
-      <c r="N38" s="73">
+      <c r="N38" s="71">
         <f>$P$8</f>
         <v>0.7</v>
       </c>
-      <c r="O38" s="73">
+      <c r="O38" s="71">
         <f>$P$8</f>
         <v>0.7</v>
       </c>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="73"/>
-      <c r="T38" s="73"/>
-      <c r="U38" s="74"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="71"/>
+      <c r="T38" s="71"/>
+      <c r="U38" s="72"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="46" t="s">
-        <v>946</v>
-      </c>
-      <c r="B39" s="45" t="s">
+      <c r="A39" s="45" t="s">
+        <v>945</v>
+      </c>
+      <c r="B39" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="44" t="s">
         <v>355</v>
       </c>
-      <c r="D39" s="72"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73">
+      <c r="D39" s="70"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71">
         <f>$P$8</f>
         <v>0.7</v>
       </c>
-      <c r="N39" s="73">
+      <c r="N39" s="71">
         <f>$P$8</f>
         <v>0.7</v>
       </c>
-      <c r="O39" s="73">
+      <c r="O39" s="71">
         <f>$P$8</f>
         <v>0.7</v>
       </c>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="73"/>
-      <c r="R39" s="73"/>
-      <c r="S39" s="73"/>
-      <c r="T39" s="73"/>
-      <c r="U39" s="74"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="71"/>
+      <c r="U39" s="72"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
-        <v>947</v>
-      </c>
-      <c r="B40" s="45" t="s">
+        <v>946</v>
+      </c>
+      <c r="B40" s="44" t="s">
         <v>586</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73">
+      <c r="D40" s="70"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71">
         <f>$K$11</f>
         <v>0.8</v>
       </c>
-      <c r="J40" s="73">
+      <c r="J40" s="71">
         <f>$I$11</f>
         <v>0.8</v>
       </c>
-      <c r="K40" s="73">
+      <c r="K40" s="71">
         <f>$N$11</f>
         <v>0.8</v>
       </c>
-      <c r="L40" s="73">
+      <c r="L40" s="71">
         <f>$O$11</f>
         <v>0.8</v>
       </c>
-      <c r="M40" s="73">
+      <c r="M40" s="71">
         <f>$P$11</f>
         <v>0.7</v>
       </c>
-      <c r="N40" s="73">
+      <c r="N40" s="71">
         <f>$P$11</f>
         <v>0.7</v>
       </c>
-      <c r="O40" s="73">
+      <c r="O40" s="71">
         <f>$P$11</f>
         <v>0.7</v>
       </c>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="73"/>
-      <c r="S40" s="73"/>
-      <c r="T40" s="73"/>
-      <c r="U40" s="74"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="71"/>
+      <c r="T40" s="71"/>
+      <c r="U40" s="72"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
-        <v>947</v>
-      </c>
-      <c r="B41" s="45" t="s">
+        <v>946</v>
+      </c>
+      <c r="B41" s="44" t="s">
         <v>587</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73">
+      <c r="D41" s="70"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71">
         <f t="shared" ref="I41:I43" si="1">$K$11</f>
         <v>0.8</v>
       </c>
-      <c r="J41" s="73">
+      <c r="J41" s="71">
         <f t="shared" ref="J41:J43" si="2">$I$11</f>
         <v>0.8</v>
       </c>
-      <c r="K41" s="73">
+      <c r="K41" s="71">
         <f t="shared" ref="K41:K43" si="3">$N$11</f>
         <v>0.8</v>
       </c>
-      <c r="L41" s="73">
+      <c r="L41" s="71">
         <f t="shared" ref="L41:L43" si="4">$O$11</f>
         <v>0.8</v>
       </c>
-      <c r="M41" s="73">
+      <c r="M41" s="71">
         <f t="shared" ref="M41:O43" si="5">$P$11</f>
         <v>0.7</v>
       </c>
-      <c r="N41" s="73">
+      <c r="N41" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="O41" s="73">
+      <c r="O41" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="73"/>
-      <c r="S41" s="73"/>
-      <c r="T41" s="73"/>
-      <c r="U41" s="74"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="71"/>
+      <c r="U41" s="72"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
-        <v>947</v>
-      </c>
-      <c r="B42" s="45" t="s">
+        <v>946</v>
+      </c>
+      <c r="B42" s="44" t="s">
         <v>588</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73">
+      <c r="D42" s="70"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="J42" s="73">
+      <c r="J42" s="71">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="K42" s="73">
+      <c r="K42" s="71">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="L42" s="73">
+      <c r="L42" s="71">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="M42" s="73">
+      <c r="M42" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="N42" s="73">
+      <c r="N42" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="O42" s="73">
+      <c r="O42" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="73"/>
-      <c r="R42" s="73"/>
-      <c r="S42" s="73"/>
-      <c r="T42" s="73"/>
-      <c r="U42" s="74"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="71"/>
+      <c r="U42" s="72"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
-        <v>947</v>
-      </c>
-      <c r="B43" s="45" t="s">
+        <v>946</v>
+      </c>
+      <c r="B43" s="44" t="s">
         <v>589</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="D43" s="72"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73">
+      <c r="D43" s="70"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="J43" s="73">
+      <c r="J43" s="71">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="K43" s="73">
+      <c r="K43" s="71">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="L43" s="73">
+      <c r="L43" s="71">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="M43" s="73">
+      <c r="M43" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="N43" s="73">
+      <c r="N43" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="O43" s="73">
+      <c r="O43" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="73"/>
-      <c r="R43" s="73"/>
-      <c r="S43" s="73"/>
-      <c r="T43" s="73"/>
-      <c r="U43" s="74"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="71"/>
+      <c r="U43" s="72"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="57" t="s">
-        <v>948</v>
-      </c>
-      <c r="B44" s="45" t="s">
+      <c r="A44" s="56" t="s">
+        <v>947</v>
+      </c>
+      <c r="B44" s="44" t="s">
         <v>882</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="44" t="s">
         <v>883</v>
       </c>
-      <c r="D44" s="72">
+      <c r="D44" s="70">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E44" s="73">
+      <c r="E44" s="71">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F44" s="73">
+      <c r="F44" s="71">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G44" s="73">
+      <c r="G44" s="71">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H44" s="73">
+      <c r="H44" s="71">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="I44" s="73">
+      <c r="I44" s="71">
         <f>$K$13</f>
         <v>0.87138156437019998</v>
       </c>
-      <c r="J44" s="73">
+      <c r="J44" s="71">
         <f>$I$13</f>
         <v>0.86927271702207298</v>
       </c>
-      <c r="K44" s="73">
+      <c r="K44" s="71">
         <f>$N$13</f>
         <v>0.81809329894973004</v>
       </c>
-      <c r="L44" s="73">
+      <c r="L44" s="71">
         <f>$O$13</f>
         <v>0.89771421948548102</v>
       </c>
-      <c r="M44" s="73">
+      <c r="M44" s="71">
         <f t="shared" ref="M44:O44" si="6">$P$13</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N44" s="73">
+      <c r="N44" s="71">
         <f t="shared" si="6"/>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O44" s="73">
+      <c r="O44" s="71">
         <f t="shared" si="6"/>
         <v>0.95978881465296295</v>
       </c>
-      <c r="P44" s="73"/>
-      <c r="Q44" s="73"/>
-      <c r="R44" s="73"/>
-      <c r="S44" s="73"/>
-      <c r="T44" s="73"/>
-      <c r="U44" s="74"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="72"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="57" t="s">
-        <v>948</v>
-      </c>
-      <c r="B45" s="45" t="s">
+      <c r="A45" s="56" t="s">
+        <v>947</v>
+      </c>
+      <c r="B45" s="44" t="s">
         <v>884</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="44" t="s">
         <v>885</v>
       </c>
-      <c r="D45" s="72">
+      <c r="D45" s="70">
         <f>$Q$15</f>
         <v>1</v>
       </c>
-      <c r="E45" s="73">
+      <c r="E45" s="71">
         <f t="shared" ref="E45:F45" si="7">$Q$15</f>
         <v>1</v>
       </c>
-      <c r="F45" s="73">
+      <c r="F45" s="71">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="G45" s="73">
+      <c r="G45" s="71">
         <f>$Q$15</f>
         <v>1</v>
       </c>
-      <c r="H45" s="73">
+      <c r="H45" s="71">
         <f>$Q$15</f>
         <v>1</v>
       </c>
-      <c r="I45" s="73">
+      <c r="I45" s="71">
         <f>$K$15</f>
         <v>1</v>
       </c>
-      <c r="J45" s="73">
+      <c r="J45" s="71">
         <f>$I$15</f>
         <v>0.99877498740551296</v>
       </c>
-      <c r="K45" s="73">
+      <c r="K45" s="71">
         <f>$N$15</f>
         <v>1</v>
       </c>
-      <c r="L45" s="73">
+      <c r="L45" s="71">
         <f>$O$15</f>
         <v>0.999156412809172</v>
       </c>
-      <c r="M45" s="73">
+      <c r="M45" s="71">
         <f>$P$15</f>
         <v>0.98009206796423698</v>
       </c>
-      <c r="N45" s="73">
+      <c r="N45" s="71">
         <f>$P$15</f>
         <v>0.98009206796423698</v>
       </c>
-      <c r="O45" s="73">
+      <c r="O45" s="71">
         <f>$P$15</f>
         <v>0.98009206796423698</v>
       </c>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="73"/>
-      <c r="R45" s="73"/>
-      <c r="S45" s="73"/>
-      <c r="T45" s="73"/>
-      <c r="U45" s="74"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="71"/>
+      <c r="U45" s="72"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="57" t="s">
-        <v>948</v>
-      </c>
-      <c r="B46" s="45" t="s">
+      <c r="A46" s="56" t="s">
+        <v>947</v>
+      </c>
+      <c r="B46" s="44" t="s">
         <v>601</v>
       </c>
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="44" t="s">
         <v>374</v>
       </c>
-      <c r="D46" s="72">
+      <c r="D46" s="70">
         <f>$Q$16</f>
         <v>0.95200977870694903</v>
       </c>
-      <c r="E46" s="73">
+      <c r="E46" s="71">
         <f t="shared" ref="E46:G46" si="8">$Q$16</f>
         <v>0.95200977870694903</v>
       </c>
-      <c r="F46" s="73">
+      <c r="F46" s="71">
         <f t="shared" si="8"/>
         <v>0.95200977870694903</v>
       </c>
-      <c r="G46" s="73">
+      <c r="G46" s="71">
         <f t="shared" si="8"/>
         <v>0.95200977870694903</v>
       </c>
-      <c r="H46" s="73">
+      <c r="H46" s="71">
         <f>$Q$16</f>
         <v>0.95200977870694903</v>
       </c>
-      <c r="I46" s="73">
+      <c r="I46" s="71">
         <f>$K$16</f>
         <v>0.91188541832382797</v>
       </c>
-      <c r="J46" s="73">
+      <c r="J46" s="71">
         <f>$I$16</f>
         <v>0.90542002153861501</v>
       </c>
-      <c r="K46" s="73">
+      <c r="K46" s="71">
         <f>$N$16</f>
         <v>0.81225200582322299</v>
       </c>
-      <c r="L46" s="73">
+      <c r="L46" s="71">
         <f>$O$16</f>
         <v>0.90874200468859301</v>
       </c>
-      <c r="M46" s="73">
+      <c r="M46" s="71">
         <f>$P$16</f>
         <v>0.98460249995958704</v>
       </c>
-      <c r="N46" s="73">
+      <c r="N46" s="71">
         <f>$P$16</f>
         <v>0.98460249995958704</v>
       </c>
-      <c r="O46" s="73">
+      <c r="O46" s="71">
         <f>$P$16</f>
         <v>0.98460249995958704</v>
       </c>
-      <c r="P46" s="73"/>
-      <c r="Q46" s="73"/>
-      <c r="R46" s="73"/>
-      <c r="S46" s="73"/>
-      <c r="T46" s="73"/>
-      <c r="U46" s="74"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="71"/>
+      <c r="U46" s="72"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="57" t="s">
-        <v>948</v>
-      </c>
-      <c r="B47" s="45" t="s">
+      <c r="A47" s="56" t="s">
+        <v>947</v>
+      </c>
+      <c r="B47" s="44" t="s">
         <v>600</v>
       </c>
-      <c r="C47" s="45" t="s">
+      <c r="C47" s="44" t="s">
         <v>373</v>
       </c>
-      <c r="D47" s="72">
+      <c r="D47" s="70">
         <f>$Q$17</f>
         <v>1</v>
       </c>
-      <c r="E47" s="73">
+      <c r="E47" s="71">
         <f>$Q$17</f>
         <v>1</v>
       </c>
-      <c r="F47" s="73">
+      <c r="F47" s="71">
         <f t="shared" ref="F47:G48" si="9">$Q$17</f>
         <v>1</v>
       </c>
-      <c r="G47" s="73">
+      <c r="G47" s="71">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="H47" s="73">
+      <c r="H47" s="71">
         <f>$Q$17</f>
         <v>1</v>
       </c>
-      <c r="I47" s="73">
+      <c r="I47" s="71">
         <f>$K$17</f>
         <v>1</v>
       </c>
-      <c r="J47" s="73">
+      <c r="J47" s="71">
         <f>$I$17</f>
         <v>0.99959212142745102</v>
       </c>
-      <c r="K47" s="73">
+      <c r="K47" s="71">
         <f>$N$17</f>
         <v>1</v>
       </c>
-      <c r="L47" s="73">
+      <c r="L47" s="71">
         <f>$O$17</f>
         <v>1</v>
       </c>
-      <c r="M47" s="73">
+      <c r="M47" s="71">
         <f t="shared" ref="M47:O48" si="10">$P$17</f>
         <v>0.99517688048449904</v>
       </c>
-      <c r="N47" s="73">
+      <c r="N47" s="71">
         <f t="shared" si="10"/>
         <v>0.99517688048449904</v>
       </c>
-      <c r="O47" s="73">
+      <c r="O47" s="71">
         <f t="shared" si="10"/>
         <v>0.99517688048449904</v>
       </c>
-      <c r="P47" s="73"/>
-      <c r="Q47" s="73"/>
-      <c r="R47" s="73"/>
-      <c r="S47" s="73"/>
-      <c r="T47" s="73"/>
-      <c r="U47" s="74"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
+      <c r="T47" s="71"/>
+      <c r="U47" s="72"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="57" t="s">
-        <v>948</v>
-      </c>
-      <c r="B48" s="45" t="s">
+      <c r="A48" s="56" t="s">
+        <v>947</v>
+      </c>
+      <c r="B48" s="44" t="s">
         <v>602</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="72">
+      <c r="D48" s="70">
         <f>$Q$17</f>
         <v>1</v>
       </c>
-      <c r="E48" s="73">
+      <c r="E48" s="71">
         <f>$Q$17</f>
         <v>1</v>
       </c>
-      <c r="F48" s="73">
+      <c r="F48" s="71">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G48" s="73">
+      <c r="G48" s="71">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="H48" s="73">
+      <c r="H48" s="71">
         <f>$Q$17</f>
         <v>1</v>
       </c>
-      <c r="I48" s="73">
+      <c r="I48" s="71">
         <f>$K$17</f>
         <v>1</v>
       </c>
-      <c r="J48" s="73">
+      <c r="J48" s="71">
         <f>$I$17</f>
         <v>0.99959212142745102</v>
       </c>
-      <c r="K48" s="73">
+      <c r="K48" s="71">
         <f>$N$17</f>
         <v>1</v>
       </c>
-      <c r="L48" s="73">
+      <c r="L48" s="71">
         <f>$O$17</f>
         <v>1</v>
       </c>
-      <c r="M48" s="73">
+      <c r="M48" s="71">
         <f t="shared" si="10"/>
         <v>0.99517688048449904</v>
       </c>
-      <c r="N48" s="73">
+      <c r="N48" s="71">
         <f t="shared" si="10"/>
         <v>0.99517688048449904</v>
       </c>
-      <c r="O48" s="73">
+      <c r="O48" s="71">
         <f t="shared" si="10"/>
         <v>0.99517688048449904</v>
       </c>
-      <c r="P48" s="73"/>
-      <c r="Q48" s="73"/>
-      <c r="R48" s="73"/>
-      <c r="S48" s="73"/>
-      <c r="T48" s="73"/>
-      <c r="U48" s="74"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
+      <c r="T48" s="71"/>
+      <c r="U48" s="72"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="57" t="s">
-        <v>948</v>
-      </c>
-      <c r="B49" s="45" t="s">
+      <c r="A49" s="56" t="s">
+        <v>947</v>
+      </c>
+      <c r="B49" s="44" t="s">
         <v>603</v>
       </c>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="72">
+      <c r="D49" s="70">
         <f>$Q$18</f>
         <v>1</v>
       </c>
-      <c r="E49" s="73">
+      <c r="E49" s="71">
         <f t="shared" ref="E49:F49" si="11">$Q$18</f>
         <v>1</v>
       </c>
-      <c r="F49" s="73">
+      <c r="F49" s="71">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="G49" s="73">
+      <c r="G49" s="71">
         <f>$Q$18</f>
         <v>1</v>
       </c>
-      <c r="H49" s="73">
+      <c r="H49" s="71">
         <f>$Q$18</f>
         <v>1</v>
       </c>
-      <c r="I49" s="73">
+      <c r="I49" s="71">
         <f>$K$18</f>
         <v>0.99949496003205796</v>
       </c>
-      <c r="J49" s="73">
+      <c r="J49" s="71">
         <f>$I$18</f>
         <v>0.99996338425751496</v>
       </c>
-      <c r="K49" s="73">
+      <c r="K49" s="71">
         <f>$N$18</f>
         <v>0.99974574415004602</v>
       </c>
-      <c r="L49" s="73">
+      <c r="L49" s="71">
         <f>$O$18</f>
         <v>0.99996712399807097</v>
       </c>
-      <c r="M49" s="73">
+      <c r="M49" s="71">
         <f>$P$18</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="N49" s="73">
+      <c r="N49" s="71">
         <f>$P$18</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="O49" s="73">
+      <c r="O49" s="71">
         <f>$P$18</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="P49" s="73"/>
-      <c r="Q49" s="73"/>
-      <c r="R49" s="73"/>
-      <c r="S49" s="73"/>
-      <c r="T49" s="73"/>
-      <c r="U49" s="74"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="72"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="57" t="s">
-        <v>948</v>
-      </c>
-      <c r="B50" s="45" t="s">
+      <c r="A50" s="56" t="s">
+        <v>947</v>
+      </c>
+      <c r="B50" s="44" t="s">
         <v>604</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="72">
+      <c r="D50" s="70">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E50" s="73">
+      <c r="E50" s="71">
         <f t="shared" ref="E50:G50" si="12">$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F50" s="73">
+      <c r="F50" s="71">
         <f t="shared" si="12"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G50" s="73">
+      <c r="G50" s="71">
         <f t="shared" si="12"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H50" s="73">
+      <c r="H50" s="71">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="I50" s="73">
+      <c r="I50" s="71">
         <f>$K$13</f>
         <v>0.87138156437019998</v>
       </c>
-      <c r="J50" s="73">
+      <c r="J50" s="71">
         <f>$I$13</f>
         <v>0.86927271702207298</v>
       </c>
-      <c r="K50" s="73">
+      <c r="K50" s="71">
         <f>$N$13</f>
         <v>0.81809329894973004</v>
       </c>
-      <c r="L50" s="73">
+      <c r="L50" s="71">
         <f>$O$13</f>
         <v>0.89771421948548102</v>
       </c>
-      <c r="M50" s="73">
+      <c r="M50" s="71">
         <f>$P$13</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N50" s="73">
+      <c r="N50" s="71">
         <f>$P$13</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O50" s="73">
+      <c r="O50" s="71">
         <f t="shared" ref="O50" si="13">$P$13</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="P50" s="73"/>
-      <c r="Q50" s="73"/>
-      <c r="R50" s="73"/>
-      <c r="S50" s="73"/>
-      <c r="T50" s="73"/>
-      <c r="U50" s="74"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="71"/>
+      <c r="T50" s="71"/>
+      <c r="U50" s="72"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="57" t="s">
-        <v>948</v>
-      </c>
-      <c r="B51" s="45" t="s">
+      <c r="A51" s="56" t="s">
+        <v>947</v>
+      </c>
+      <c r="B51" s="44" t="s">
         <v>605</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C51" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="72">
+      <c r="D51" s="70">
         <f>$Q$18</f>
         <v>1</v>
       </c>
-      <c r="E51" s="73">
+      <c r="E51" s="71">
         <f t="shared" ref="E51:G51" si="14">$Q$18</f>
         <v>1</v>
       </c>
-      <c r="F51" s="73">
+      <c r="F51" s="71">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="G51" s="73">
+      <c r="G51" s="71">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="H51" s="73">
+      <c r="H51" s="71">
         <f>$Q$18</f>
         <v>1</v>
       </c>
-      <c r="I51" s="73">
+      <c r="I51" s="71">
         <f>$K$18</f>
         <v>0.99949496003205796</v>
       </c>
-      <c r="J51" s="73">
+      <c r="J51" s="71">
         <f>$I$18</f>
         <v>0.99996338425751496</v>
       </c>
-      <c r="K51" s="73">
+      <c r="K51" s="71">
         <f>$N$18</f>
         <v>0.99974574415004602</v>
       </c>
-      <c r="L51" s="73">
+      <c r="L51" s="71">
         <f>$O$18</f>
         <v>0.99996712399807097</v>
       </c>
-      <c r="M51" s="73">
+      <c r="M51" s="71">
         <f>$P$18</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="N51" s="73">
+      <c r="N51" s="71">
         <f>$P$18</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="O51" s="73">
+      <c r="O51" s="71">
         <f>$P$18</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="P51" s="73"/>
-      <c r="Q51" s="73"/>
-      <c r="R51" s="73"/>
-      <c r="S51" s="73"/>
-      <c r="T51" s="73"/>
-      <c r="U51" s="74"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+      <c r="T51" s="71"/>
+      <c r="U51" s="72"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="57" t="s">
-        <v>948</v>
-      </c>
-      <c r="B52" s="45" t="s">
+      <c r="A52" s="56" t="s">
+        <v>947</v>
+      </c>
+      <c r="B52" s="44" t="s">
         <v>606</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="72">
+      <c r="D52" s="70">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E52" s="73">
+      <c r="E52" s="71">
         <f t="shared" ref="E52:H54" si="15">$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F52" s="73">
+      <c r="F52" s="71">
         <f t="shared" si="15"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G52" s="73">
+      <c r="G52" s="71">
         <f t="shared" si="15"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H52" s="73">
+      <c r="H52" s="71">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="I52" s="73">
+      <c r="I52" s="71">
         <f>$K$13</f>
         <v>0.87138156437019998</v>
       </c>
-      <c r="J52" s="73">
+      <c r="J52" s="71">
         <f>$I$13</f>
         <v>0.86927271702207298</v>
       </c>
-      <c r="K52" s="73">
+      <c r="K52" s="71">
         <f>$N$13</f>
         <v>0.81809329894973004</v>
       </c>
-      <c r="L52" s="73">
+      <c r="L52" s="71">
         <f>$O$13</f>
         <v>0.89771421948548102</v>
       </c>
-      <c r="M52" s="73">
+      <c r="M52" s="71">
         <f>$P$13</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N52" s="73">
+      <c r="N52" s="71">
         <f>$P$13</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O52" s="73">
+      <c r="O52" s="71">
         <f t="shared" ref="O52:O54" si="16">$P$13</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="P52" s="73"/>
-      <c r="Q52" s="73"/>
-      <c r="R52" s="73"/>
-      <c r="S52" s="73"/>
-      <c r="T52" s="73"/>
-      <c r="U52" s="74"/>
+      <c r="P52" s="71"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="71"/>
+      <c r="S52" s="71"/>
+      <c r="T52" s="71"/>
+      <c r="U52" s="72"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="57" t="s">
-        <v>948</v>
-      </c>
-      <c r="B53" s="45" t="s">
+      <c r="A53" s="56" t="s">
+        <v>947</v>
+      </c>
+      <c r="B53" s="44" t="s">
         <v>607</v>
       </c>
-      <c r="C53" s="45" t="s">
+      <c r="C53" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="72">
+      <c r="D53" s="70">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E53" s="73">
+      <c r="E53" s="71">
         <f t="shared" si="15"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F53" s="73">
+      <c r="F53" s="71">
         <f t="shared" si="15"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G53" s="73">
+      <c r="G53" s="71">
         <f t="shared" si="15"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H53" s="73">
+      <c r="H53" s="71">
         <f t="shared" si="15"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="I53" s="73">
+      <c r="I53" s="71">
         <f t="shared" ref="I53:I54" si="17">$K$13</f>
         <v>0.87138156437019998</v>
       </c>
-      <c r="J53" s="73">
+      <c r="J53" s="71">
         <f t="shared" ref="J53:J54" si="18">$I$13</f>
         <v>0.86927271702207298</v>
       </c>
-      <c r="K53" s="73">
+      <c r="K53" s="71">
         <f t="shared" ref="K53:K54" si="19">$N$13</f>
         <v>0.81809329894973004</v>
       </c>
-      <c r="L53" s="73">
+      <c r="L53" s="71">
         <f t="shared" ref="L53:L54" si="20">$O$13</f>
         <v>0.89771421948548102</v>
       </c>
-      <c r="M53" s="73">
+      <c r="M53" s="71">
         <f t="shared" ref="M53:N54" si="21">$P$13</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N53" s="73">
+      <c r="N53" s="71">
         <f t="shared" si="21"/>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O53" s="73">
+      <c r="O53" s="71">
         <f t="shared" si="16"/>
         <v>0.95978881465296295</v>
       </c>
-      <c r="P53" s="73"/>
-      <c r="Q53" s="73"/>
-      <c r="R53" s="73"/>
-      <c r="S53" s="73"/>
-      <c r="T53" s="73"/>
-      <c r="U53" s="74"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="71"/>
+      <c r="T53" s="71"/>
+      <c r="U53" s="72"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="57" t="s">
-        <v>948</v>
-      </c>
-      <c r="B54" s="45" t="s">
+      <c r="A54" s="56" t="s">
+        <v>947</v>
+      </c>
+      <c r="B54" s="44" t="s">
         <v>608</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="C54" s="44" t="s">
         <v>375</v>
       </c>
-      <c r="D54" s="72">
+      <c r="D54" s="70">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E54" s="73">
+      <c r="E54" s="71">
         <f t="shared" si="15"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F54" s="73">
+      <c r="F54" s="71">
         <f t="shared" si="15"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G54" s="73">
+      <c r="G54" s="71">
         <f t="shared" si="15"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H54" s="73">
+      <c r="H54" s="71">
         <f t="shared" si="15"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="I54" s="73">
+      <c r="I54" s="71">
         <f t="shared" si="17"/>
         <v>0.87138156437019998</v>
       </c>
-      <c r="J54" s="73">
+      <c r="J54" s="71">
         <f t="shared" si="18"/>
         <v>0.86927271702207298</v>
       </c>
-      <c r="K54" s="73">
+      <c r="K54" s="71">
         <f t="shared" si="19"/>
         <v>0.81809329894973004</v>
       </c>
-      <c r="L54" s="73">
+      <c r="L54" s="71">
         <f t="shared" si="20"/>
         <v>0.89771421948548102</v>
       </c>
-      <c r="M54" s="73">
+      <c r="M54" s="71">
         <f t="shared" si="21"/>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N54" s="73">
+      <c r="N54" s="71">
         <f t="shared" si="21"/>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O54" s="73">
+      <c r="O54" s="71">
         <f t="shared" si="16"/>
         <v>0.95978881465296295</v>
       </c>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
-      <c r="R54" s="73"/>
-      <c r="S54" s="73"/>
-      <c r="T54" s="73"/>
-      <c r="U54" s="74"/>
+      <c r="P54" s="71"/>
+      <c r="Q54" s="71"/>
+      <c r="R54" s="71"/>
+      <c r="S54" s="71"/>
+      <c r="T54" s="71"/>
+      <c r="U54" s="72"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="51" t="s">
-        <v>949</v>
-      </c>
-      <c r="B55" s="45" t="s">
+      <c r="A55" s="50" t="s">
+        <v>948</v>
+      </c>
+      <c r="B55" s="44" t="s">
         <v>880</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="C55" s="44" t="s">
         <v>881</v>
       </c>
-      <c r="D55" s="75"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76">
+      <c r="D55" s="73"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74">
         <f>$K$9</f>
         <v>0.8</v>
       </c>
-      <c r="J55" s="76">
+      <c r="J55" s="74">
         <f>$I$9</f>
         <v>0.8</v>
       </c>
-      <c r="K55" s="76">
+      <c r="K55" s="74">
         <f>$N$9</f>
         <v>0.8</v>
       </c>
-      <c r="L55" s="76">
+      <c r="L55" s="74">
         <f>$O$9</f>
         <v>0.8</v>
       </c>
-      <c r="M55" s="76">
+      <c r="M55" s="74">
         <f>$P$9</f>
         <v>0.7</v>
       </c>
-      <c r="N55" s="76">
+      <c r="N55" s="74">
         <f>$P$9</f>
         <v>0.7</v>
       </c>
-      <c r="O55" s="76">
+      <c r="O55" s="74">
         <f>$P$9</f>
         <v>0.7</v>
       </c>
-      <c r="P55" s="76"/>
-      <c r="Q55" s="76">
+      <c r="P55" s="74"/>
+      <c r="Q55" s="74">
         <f>$D$9</f>
         <v>0.85</v>
       </c>
-      <c r="R55" s="76"/>
-      <c r="S55" s="76"/>
-      <c r="T55" s="76"/>
-      <c r="U55" s="77"/>
+      <c r="R55" s="74"/>
+      <c r="S55" s="74"/>
+      <c r="T55" s="74"/>
+      <c r="U55" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -44460,7 +44457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B0F1D2-7059-4956-8DCD-79F87C6BF94C}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -44488,7 +44485,7 @@
       </c>
       <c r="E1" t="str">
         <f>exio_usa!F35</f>
-        <v>Other buildungs</v>
+        <v>Other buildings</v>
       </c>
       <c r="F1" t="str">
         <f>exio_usa!G35</f>
@@ -44556,79 +44553,79 @@
         <f>exio_usa!B36</f>
         <v>321100+32121A</v>
       </c>
-      <c r="B2" s="78" t="str">
+      <c r="B2" s="76" t="str">
         <f>exio_usa!C36</f>
         <v>Sawmills and wood preservation+Veneer and plywood manufacturing</v>
       </c>
-      <c r="C2" s="78">
+      <c r="C2" s="76">
         <f>exio_usa!D36</f>
         <v>0</v>
       </c>
-      <c r="D2" s="78">
+      <c r="D2" s="76">
         <f>exio_usa!E36</f>
         <v>0</v>
       </c>
-      <c r="E2" s="78">
+      <c r="E2" s="76">
         <f>exio_usa!F36</f>
         <v>0</v>
       </c>
-      <c r="F2" s="78">
+      <c r="F2" s="76">
         <f>exio_usa!G36</f>
         <v>0</v>
       </c>
-      <c r="G2" s="78">
+      <c r="G2" s="76">
         <f>exio_usa!H36</f>
         <v>0</v>
       </c>
-      <c r="H2" s="78">
+      <c r="H2" s="76">
         <f>exio_usa!I36</f>
         <v>0</v>
       </c>
-      <c r="I2" s="78">
+      <c r="I2" s="76">
         <f>exio_usa!J36</f>
         <v>0</v>
       </c>
-      <c r="J2" s="78">
+      <c r="J2" s="76">
         <f>exio_usa!K36</f>
         <v>0</v>
       </c>
-      <c r="K2" s="78">
+      <c r="K2" s="76">
         <f>exio_usa!L36</f>
         <v>0</v>
       </c>
-      <c r="L2" s="78">
+      <c r="L2" s="76">
         <f>exio_usa!M36</f>
         <v>0.7</v>
       </c>
-      <c r="M2" s="78">
+      <c r="M2" s="76">
         <f>exio_usa!N36</f>
         <v>0.7</v>
       </c>
-      <c r="N2" s="78">
+      <c r="N2" s="76">
         <f>exio_usa!O36</f>
         <v>0.7</v>
       </c>
-      <c r="O2" s="78">
+      <c r="O2" s="76">
         <f>exio_usa!P36</f>
         <v>0</v>
       </c>
-      <c r="P2" s="78">
+      <c r="P2" s="76">
         <f>exio_usa!Q36</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="78">
+      <c r="Q2" s="76">
         <f>exio_usa!R36</f>
         <v>0</v>
       </c>
-      <c r="R2" s="78">
+      <c r="R2" s="76">
         <f>exio_usa!S36</f>
         <v>0</v>
       </c>
-      <c r="S2" s="78">
+      <c r="S2" s="76">
         <f>exio_usa!T36</f>
         <v>0</v>
       </c>
-      <c r="T2" s="78">
+      <c r="T2" s="76">
         <f>exio_usa!U36</f>
         <v>0</v>
       </c>
@@ -44638,79 +44635,79 @@
         <f>exio_usa!B37</f>
         <v>321219</v>
       </c>
-      <c r="B3" s="78" t="str">
+      <c r="B3" s="76" t="str">
         <f>exio_usa!C37</f>
         <v>Reconstituted wood product manufacturing</v>
       </c>
-      <c r="C3" s="78">
+      <c r="C3" s="76">
         <f>exio_usa!D37</f>
         <v>0</v>
       </c>
-      <c r="D3" s="78">
+      <c r="D3" s="76">
         <f>exio_usa!E37</f>
         <v>0</v>
       </c>
-      <c r="E3" s="78">
+      <c r="E3" s="76">
         <f>exio_usa!F37</f>
         <v>0</v>
       </c>
-      <c r="F3" s="78">
+      <c r="F3" s="76">
         <f>exio_usa!G37</f>
         <v>0</v>
       </c>
-      <c r="G3" s="78">
+      <c r="G3" s="76">
         <f>exio_usa!H37</f>
         <v>0</v>
       </c>
-      <c r="H3" s="78">
+      <c r="H3" s="76">
         <f>exio_usa!I37</f>
         <v>0</v>
       </c>
-      <c r="I3" s="78">
+      <c r="I3" s="76">
         <f>exio_usa!J37</f>
         <v>0</v>
       </c>
-      <c r="J3" s="78">
+      <c r="J3" s="76">
         <f>exio_usa!K37</f>
         <v>0</v>
       </c>
-      <c r="K3" s="78">
+      <c r="K3" s="76">
         <f>exio_usa!L37</f>
         <v>0</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="76">
         <f>exio_usa!M37</f>
         <v>0.7</v>
       </c>
-      <c r="M3" s="78">
+      <c r="M3" s="76">
         <f>exio_usa!N37</f>
         <v>0.7</v>
       </c>
-      <c r="N3" s="78">
+      <c r="N3" s="76">
         <f>exio_usa!O37</f>
         <v>0.7</v>
       </c>
-      <c r="O3" s="78">
+      <c r="O3" s="76">
         <f>exio_usa!P37</f>
         <v>0</v>
       </c>
-      <c r="P3" s="78">
+      <c r="P3" s="76">
         <f>exio_usa!Q37</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="78">
+      <c r="Q3" s="76">
         <f>exio_usa!R37</f>
         <v>0</v>
       </c>
-      <c r="R3" s="78">
+      <c r="R3" s="76">
         <f>exio_usa!S37</f>
         <v>0</v>
       </c>
-      <c r="S3" s="78">
+      <c r="S3" s="76">
         <f>exio_usa!T37</f>
         <v>0</v>
       </c>
-      <c r="T3" s="78">
+      <c r="T3" s="76">
         <f>exio_usa!U37</f>
         <v>0</v>
       </c>
@@ -44720,79 +44717,79 @@
         <f>exio_usa!B38</f>
         <v>32121B</v>
       </c>
-      <c r="B4" s="78" t="str">
+      <c r="B4" s="76" t="str">
         <f>exio_usa!C38</f>
         <v>Engineered wood member and truss manufacturing</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="76">
         <f>exio_usa!D38</f>
         <v>0</v>
       </c>
-      <c r="D4" s="78">
+      <c r="D4" s="76">
         <f>exio_usa!E38</f>
         <v>0</v>
       </c>
-      <c r="E4" s="78">
+      <c r="E4" s="76">
         <f>exio_usa!F38</f>
         <v>0</v>
       </c>
-      <c r="F4" s="78">
+      <c r="F4" s="76">
         <f>exio_usa!G38</f>
         <v>0</v>
       </c>
-      <c r="G4" s="78">
+      <c r="G4" s="76">
         <f>exio_usa!H38</f>
         <v>0</v>
       </c>
-      <c r="H4" s="78">
+      <c r="H4" s="76">
         <f>exio_usa!I38</f>
         <v>0</v>
       </c>
-      <c r="I4" s="78">
+      <c r="I4" s="76">
         <f>exio_usa!J38</f>
         <v>0</v>
       </c>
-      <c r="J4" s="78">
+      <c r="J4" s="76">
         <f>exio_usa!K38</f>
         <v>0</v>
       </c>
-      <c r="K4" s="78">
+      <c r="K4" s="76">
         <f>exio_usa!L38</f>
         <v>0</v>
       </c>
-      <c r="L4" s="78">
+      <c r="L4" s="76">
         <f>exio_usa!M38</f>
         <v>0.7</v>
       </c>
-      <c r="M4" s="78">
+      <c r="M4" s="76">
         <f>exio_usa!N38</f>
         <v>0.7</v>
       </c>
-      <c r="N4" s="78">
+      <c r="N4" s="76">
         <f>exio_usa!O38</f>
         <v>0.7</v>
       </c>
-      <c r="O4" s="78">
+      <c r="O4" s="76">
         <f>exio_usa!P38</f>
         <v>0</v>
       </c>
-      <c r="P4" s="78">
+      <c r="P4" s="76">
         <f>exio_usa!Q38</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="78">
+      <c r="Q4" s="76">
         <f>exio_usa!R38</f>
         <v>0</v>
       </c>
-      <c r="R4" s="78">
+      <c r="R4" s="76">
         <f>exio_usa!S38</f>
         <v>0</v>
       </c>
-      <c r="S4" s="78">
+      <c r="S4" s="76">
         <f>exio_usa!T38</f>
         <v>0</v>
       </c>
-      <c r="T4" s="78">
+      <c r="T4" s="76">
         <f>exio_usa!U38</f>
         <v>0</v>
       </c>
@@ -44802,79 +44799,79 @@
         <f>exio_usa!B39</f>
         <v>321999</v>
       </c>
-      <c r="B5" s="78" t="str">
+      <c r="B5" s="76" t="str">
         <f>exio_usa!C39</f>
         <v>All other miscellaneous wood product manufacturing</v>
       </c>
-      <c r="C5" s="78">
+      <c r="C5" s="76">
         <f>exio_usa!D39</f>
         <v>0</v>
       </c>
-      <c r="D5" s="78">
+      <c r="D5" s="76">
         <f>exio_usa!E39</f>
         <v>0</v>
       </c>
-      <c r="E5" s="78">
+      <c r="E5" s="76">
         <f>exio_usa!F39</f>
         <v>0</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="76">
         <f>exio_usa!G39</f>
         <v>0</v>
       </c>
-      <c r="G5" s="78">
+      <c r="G5" s="76">
         <f>exio_usa!H39</f>
         <v>0</v>
       </c>
-      <c r="H5" s="78">
+      <c r="H5" s="76">
         <f>exio_usa!I39</f>
         <v>0</v>
       </c>
-      <c r="I5" s="78">
+      <c r="I5" s="76">
         <f>exio_usa!J39</f>
         <v>0</v>
       </c>
-      <c r="J5" s="78">
+      <c r="J5" s="76">
         <f>exio_usa!K39</f>
         <v>0</v>
       </c>
-      <c r="K5" s="78">
+      <c r="K5" s="76">
         <f>exio_usa!L39</f>
         <v>0</v>
       </c>
-      <c r="L5" s="78">
+      <c r="L5" s="76">
         <f>exio_usa!M39</f>
         <v>0.7</v>
       </c>
-      <c r="M5" s="78">
+      <c r="M5" s="76">
         <f>exio_usa!N39</f>
         <v>0.7</v>
       </c>
-      <c r="N5" s="78">
+      <c r="N5" s="76">
         <f>exio_usa!O39</f>
         <v>0.7</v>
       </c>
-      <c r="O5" s="78">
+      <c r="O5" s="76">
         <f>exio_usa!P39</f>
         <v>0</v>
       </c>
-      <c r="P5" s="78">
+      <c r="P5" s="76">
         <f>exio_usa!Q39</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="78">
+      <c r="Q5" s="76">
         <f>exio_usa!R39</f>
         <v>0</v>
       </c>
-      <c r="R5" s="78">
+      <c r="R5" s="76">
         <f>exio_usa!S39</f>
         <v>0</v>
       </c>
-      <c r="S5" s="78">
+      <c r="S5" s="76">
         <f>exio_usa!T39</f>
         <v>0</v>
       </c>
-      <c r="T5" s="78">
+      <c r="T5" s="76">
         <f>exio_usa!U39</f>
         <v>0</v>
       </c>
@@ -44884,79 +44881,79 @@
         <f>exio_usa!B40</f>
         <v>327211</v>
       </c>
-      <c r="B6" s="78" t="str">
+      <c r="B6" s="76" t="str">
         <f>exio_usa!C40</f>
         <v>Flat glass manufacturing</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="76">
         <f>exio_usa!D40</f>
         <v>0</v>
       </c>
-      <c r="D6" s="78">
+      <c r="D6" s="76">
         <f>exio_usa!E40</f>
         <v>0</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="76">
         <f>exio_usa!F40</f>
         <v>0</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="76">
         <f>exio_usa!G40</f>
         <v>0</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="76">
         <f>exio_usa!H40</f>
         <v>0</v>
       </c>
-      <c r="H6" s="78">
+      <c r="H6" s="76">
         <f>exio_usa!I40</f>
         <v>0.8</v>
       </c>
-      <c r="I6" s="78">
+      <c r="I6" s="76">
         <f>exio_usa!J40</f>
         <v>0.8</v>
       </c>
-      <c r="J6" s="78">
+      <c r="J6" s="76">
         <f>exio_usa!K40</f>
         <v>0.8</v>
       </c>
-      <c r="K6" s="78">
+      <c r="K6" s="76">
         <f>exio_usa!L40</f>
         <v>0.8</v>
       </c>
-      <c r="L6" s="78">
+      <c r="L6" s="76">
         <f>exio_usa!M40</f>
         <v>0.7</v>
       </c>
-      <c r="M6" s="78">
+      <c r="M6" s="76">
         <f>exio_usa!N40</f>
         <v>0.7</v>
       </c>
-      <c r="N6" s="78">
+      <c r="N6" s="76">
         <f>exio_usa!O40</f>
         <v>0.7</v>
       </c>
-      <c r="O6" s="78">
+      <c r="O6" s="76">
         <f>exio_usa!P40</f>
         <v>0</v>
       </c>
-      <c r="P6" s="78">
+      <c r="P6" s="76">
         <f>exio_usa!Q40</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="78">
+      <c r="Q6" s="76">
         <f>exio_usa!R40</f>
         <v>0</v>
       </c>
-      <c r="R6" s="78">
+      <c r="R6" s="76">
         <f>exio_usa!S40</f>
         <v>0</v>
       </c>
-      <c r="S6" s="78">
+      <c r="S6" s="76">
         <f>exio_usa!T40</f>
         <v>0</v>
       </c>
-      <c r="T6" s="78">
+      <c r="T6" s="76">
         <f>exio_usa!U40</f>
         <v>0</v>
       </c>
@@ -44966,79 +44963,79 @@
         <f>exio_usa!B41</f>
         <v>327212</v>
       </c>
-      <c r="B7" s="78" t="str">
+      <c r="B7" s="76" t="str">
         <f>exio_usa!C41</f>
         <v>Other pressed and blown glass and glassware manufacturing</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="76">
         <f>exio_usa!D41</f>
         <v>0</v>
       </c>
-      <c r="D7" s="78">
+      <c r="D7" s="76">
         <f>exio_usa!E41</f>
         <v>0</v>
       </c>
-      <c r="E7" s="78">
+      <c r="E7" s="76">
         <f>exio_usa!F41</f>
         <v>0</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="76">
         <f>exio_usa!G41</f>
         <v>0</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="76">
         <f>exio_usa!H41</f>
         <v>0</v>
       </c>
-      <c r="H7" s="78">
+      <c r="H7" s="76">
         <f>exio_usa!I41</f>
         <v>0.8</v>
       </c>
-      <c r="I7" s="78">
+      <c r="I7" s="76">
         <f>exio_usa!J41</f>
         <v>0.8</v>
       </c>
-      <c r="J7" s="78">
+      <c r="J7" s="76">
         <f>exio_usa!K41</f>
         <v>0.8</v>
       </c>
-      <c r="K7" s="78">
+      <c r="K7" s="76">
         <f>exio_usa!L41</f>
         <v>0.8</v>
       </c>
-      <c r="L7" s="78">
+      <c r="L7" s="76">
         <f>exio_usa!M41</f>
         <v>0.7</v>
       </c>
-      <c r="M7" s="78">
+      <c r="M7" s="76">
         <f>exio_usa!N41</f>
         <v>0.7</v>
       </c>
-      <c r="N7" s="78">
+      <c r="N7" s="76">
         <f>exio_usa!O41</f>
         <v>0.7</v>
       </c>
-      <c r="O7" s="78">
+      <c r="O7" s="76">
         <f>exio_usa!P41</f>
         <v>0</v>
       </c>
-      <c r="P7" s="78">
+      <c r="P7" s="76">
         <f>exio_usa!Q41</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="78">
+      <c r="Q7" s="76">
         <f>exio_usa!R41</f>
         <v>0</v>
       </c>
-      <c r="R7" s="78">
+      <c r="R7" s="76">
         <f>exio_usa!S41</f>
         <v>0</v>
       </c>
-      <c r="S7" s="78">
+      <c r="S7" s="76">
         <f>exio_usa!T41</f>
         <v>0</v>
       </c>
-      <c r="T7" s="78">
+      <c r="T7" s="76">
         <f>exio_usa!U41</f>
         <v>0</v>
       </c>
@@ -45048,79 +45045,79 @@
         <f>exio_usa!B42</f>
         <v>327213</v>
       </c>
-      <c r="B8" s="78" t="str">
+      <c r="B8" s="76" t="str">
         <f>exio_usa!C42</f>
         <v>Glass container manufacturing</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="76">
         <f>exio_usa!D42</f>
         <v>0</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="76">
         <f>exio_usa!E42</f>
         <v>0</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="76">
         <f>exio_usa!F42</f>
         <v>0</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="76">
         <f>exio_usa!G42</f>
         <v>0</v>
       </c>
-      <c r="G8" s="78">
+      <c r="G8" s="76">
         <f>exio_usa!H42</f>
         <v>0</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="76">
         <f>exio_usa!I42</f>
         <v>0.8</v>
       </c>
-      <c r="I8" s="78">
+      <c r="I8" s="76">
         <f>exio_usa!J42</f>
         <v>0.8</v>
       </c>
-      <c r="J8" s="78">
+      <c r="J8" s="76">
         <f>exio_usa!K42</f>
         <v>0.8</v>
       </c>
-      <c r="K8" s="78">
+      <c r="K8" s="76">
         <f>exio_usa!L42</f>
         <v>0.8</v>
       </c>
-      <c r="L8" s="78">
+      <c r="L8" s="76">
         <f>exio_usa!M42</f>
         <v>0.7</v>
       </c>
-      <c r="M8" s="78">
+      <c r="M8" s="76">
         <f>exio_usa!N42</f>
         <v>0.7</v>
       </c>
-      <c r="N8" s="78">
+      <c r="N8" s="76">
         <f>exio_usa!O42</f>
         <v>0.7</v>
       </c>
-      <c r="O8" s="78">
+      <c r="O8" s="76">
         <f>exio_usa!P42</f>
         <v>0</v>
       </c>
-      <c r="P8" s="78">
+      <c r="P8" s="76">
         <f>exio_usa!Q42</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="78">
+      <c r="Q8" s="76">
         <f>exio_usa!R42</f>
         <v>0</v>
       </c>
-      <c r="R8" s="78">
+      <c r="R8" s="76">
         <f>exio_usa!S42</f>
         <v>0</v>
       </c>
-      <c r="S8" s="78">
+      <c r="S8" s="76">
         <f>exio_usa!T42</f>
         <v>0</v>
       </c>
-      <c r="T8" s="78">
+      <c r="T8" s="76">
         <f>exio_usa!U42</f>
         <v>0</v>
       </c>
@@ -45130,79 +45127,79 @@
         <f>exio_usa!B43</f>
         <v>327215</v>
       </c>
-      <c r="B9" s="78" t="str">
+      <c r="B9" s="76" t="str">
         <f>exio_usa!C43</f>
         <v>Glass product manufacturing made of purchased glass</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="76">
         <f>exio_usa!D43</f>
         <v>0</v>
       </c>
-      <c r="D9" s="78">
+      <c r="D9" s="76">
         <f>exio_usa!E43</f>
         <v>0</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="76">
         <f>exio_usa!F43</f>
         <v>0</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="76">
         <f>exio_usa!G43</f>
         <v>0</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="76">
         <f>exio_usa!H43</f>
         <v>0</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="76">
         <f>exio_usa!I43</f>
         <v>0.8</v>
       </c>
-      <c r="I9" s="78">
+      <c r="I9" s="76">
         <f>exio_usa!J43</f>
         <v>0.8</v>
       </c>
-      <c r="J9" s="78">
+      <c r="J9" s="76">
         <f>exio_usa!K43</f>
         <v>0.8</v>
       </c>
-      <c r="K9" s="78">
+      <c r="K9" s="76">
         <f>exio_usa!L43</f>
         <v>0.8</v>
       </c>
-      <c r="L9" s="78">
+      <c r="L9" s="76">
         <f>exio_usa!M43</f>
         <v>0.7</v>
       </c>
-      <c r="M9" s="78">
+      <c r="M9" s="76">
         <f>exio_usa!N43</f>
         <v>0.7</v>
       </c>
-      <c r="N9" s="78">
+      <c r="N9" s="76">
         <f>exio_usa!O43</f>
         <v>0.7</v>
       </c>
-      <c r="O9" s="78">
+      <c r="O9" s="76">
         <f>exio_usa!P43</f>
         <v>0</v>
       </c>
-      <c r="P9" s="78">
+      <c r="P9" s="76">
         <f>exio_usa!Q43</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="78">
+      <c r="Q9" s="76">
         <f>exio_usa!R43</f>
         <v>0</v>
       </c>
-      <c r="R9" s="78">
+      <c r="R9" s="76">
         <f>exio_usa!S43</f>
         <v>0</v>
       </c>
-      <c r="S9" s="78">
+      <c r="S9" s="76">
         <f>exio_usa!T43</f>
         <v>0</v>
       </c>
-      <c r="T9" s="78">
+      <c r="T9" s="76">
         <f>exio_usa!U43</f>
         <v>0</v>
       </c>
@@ -45212,79 +45209,79 @@
         <f>exio_usa!B44</f>
         <v>331110+331200</v>
       </c>
-      <c r="B10" s="78" t="str">
+      <c r="B10" s="76" t="str">
         <f>exio_usa!C44</f>
         <v>Iron and steel mills and ferroalloy manufacturing+Steel product manufacturing from purchased steel</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="76">
         <f>exio_usa!D44</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="76">
         <f>exio_usa!E44</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="76">
         <f>exio_usa!F44</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="76">
         <f>exio_usa!G44</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="76">
         <f>exio_usa!H44</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="76">
         <f>exio_usa!I44</f>
         <v>0.87138156437019998</v>
       </c>
-      <c r="I10" s="78">
+      <c r="I10" s="76">
         <f>exio_usa!J44</f>
         <v>0.86927271702207298</v>
       </c>
-      <c r="J10" s="78">
+      <c r="J10" s="76">
         <f>exio_usa!K44</f>
         <v>0.81809329894973004</v>
       </c>
-      <c r="K10" s="78">
+      <c r="K10" s="76">
         <f>exio_usa!L44</f>
         <v>0.89771421948548102</v>
       </c>
-      <c r="L10" s="78">
+      <c r="L10" s="76">
         <f>exio_usa!M44</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="M10" s="78">
+      <c r="M10" s="76">
         <f>exio_usa!N44</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N10" s="78">
+      <c r="N10" s="76">
         <f>exio_usa!O44</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O10" s="78">
+      <c r="O10" s="76">
         <f>exio_usa!P44</f>
         <v>0</v>
       </c>
-      <c r="P10" s="78">
+      <c r="P10" s="76">
         <f>exio_usa!Q44</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="78">
+      <c r="Q10" s="76">
         <f>exio_usa!R44</f>
         <v>0</v>
       </c>
-      <c r="R10" s="78">
+      <c r="R10" s="76">
         <f>exio_usa!S44</f>
         <v>0</v>
       </c>
-      <c r="S10" s="78">
+      <c r="S10" s="76">
         <f>exio_usa!T44</f>
         <v>0</v>
       </c>
-      <c r="T10" s="78">
+      <c r="T10" s="76">
         <f>exio_usa!U44</f>
         <v>0</v>
       </c>
@@ -45294,79 +45291,79 @@
         <f>exio_usa!B45</f>
         <v>331314+33131A+33131B</v>
       </c>
-      <c r="B11" s="78" t="str">
+      <c r="B11" s="76" t="str">
         <f>exio_usa!C45</f>
         <v>Secondary smelting and alloying of aluminum+Alumina refining and primary aluminum production+Aluminum product manufacturing from purchased aluminum</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="76">
         <f>exio_usa!D45</f>
         <v>1</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="76">
         <f>exio_usa!E45</f>
         <v>1</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="76">
         <f>exio_usa!F45</f>
         <v>1</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="76">
         <f>exio_usa!G45</f>
         <v>1</v>
       </c>
-      <c r="G11" s="78">
+      <c r="G11" s="76">
         <f>exio_usa!H45</f>
         <v>1</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="76">
         <f>exio_usa!I45</f>
         <v>1</v>
       </c>
-      <c r="I11" s="78">
+      <c r="I11" s="76">
         <f>exio_usa!J45</f>
         <v>0.99877498740551296</v>
       </c>
-      <c r="J11" s="78">
+      <c r="J11" s="76">
         <f>exio_usa!K45</f>
         <v>1</v>
       </c>
-      <c r="K11" s="78">
+      <c r="K11" s="76">
         <f>exio_usa!L45</f>
         <v>0.999156412809172</v>
       </c>
-      <c r="L11" s="78">
+      <c r="L11" s="76">
         <f>exio_usa!M45</f>
         <v>0.98009206796423698</v>
       </c>
-      <c r="M11" s="78">
+      <c r="M11" s="76">
         <f>exio_usa!N45</f>
         <v>0.98009206796423698</v>
       </c>
-      <c r="N11" s="78">
+      <c r="N11" s="76">
         <f>exio_usa!O45</f>
         <v>0.98009206796423698</v>
       </c>
-      <c r="O11" s="78">
+      <c r="O11" s="76">
         <f>exio_usa!P45</f>
         <v>0</v>
       </c>
-      <c r="P11" s="78">
+      <c r="P11" s="76">
         <f>exio_usa!Q45</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="78">
+      <c r="Q11" s="76">
         <f>exio_usa!R45</f>
         <v>0</v>
       </c>
-      <c r="R11" s="78">
+      <c r="R11" s="76">
         <f>exio_usa!S45</f>
         <v>0</v>
       </c>
-      <c r="S11" s="78">
+      <c r="S11" s="76">
         <f>exio_usa!T45</f>
         <v>0</v>
       </c>
-      <c r="T11" s="78">
+      <c r="T11" s="76">
         <f>exio_usa!U45</f>
         <v>0</v>
       </c>
@@ -45376,79 +45373,79 @@
         <f>exio_usa!B46</f>
         <v>331419</v>
       </c>
-      <c r="B12" s="78" t="str">
+      <c r="B12" s="76" t="str">
         <f>exio_usa!C46</f>
         <v>Primary smelting and refining of nonferrous metal (except copper and aluminum)</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="76">
         <f>exio_usa!D46</f>
         <v>0.95200977870694903</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="76">
         <f>exio_usa!E46</f>
         <v>0.95200977870694903</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="76">
         <f>exio_usa!F46</f>
         <v>0.95200977870694903</v>
       </c>
-      <c r="F12" s="78">
+      <c r="F12" s="76">
         <f>exio_usa!G46</f>
         <v>0.95200977870694903</v>
       </c>
-      <c r="G12" s="78">
+      <c r="G12" s="76">
         <f>exio_usa!H46</f>
         <v>0.95200977870694903</v>
       </c>
-      <c r="H12" s="78">
+      <c r="H12" s="76">
         <f>exio_usa!I46</f>
         <v>0.91188541832382797</v>
       </c>
-      <c r="I12" s="78">
+      <c r="I12" s="76">
         <f>exio_usa!J46</f>
         <v>0.90542002153861501</v>
       </c>
-      <c r="J12" s="78">
+      <c r="J12" s="76">
         <f>exio_usa!K46</f>
         <v>0.81225200582322299</v>
       </c>
-      <c r="K12" s="78">
+      <c r="K12" s="76">
         <f>exio_usa!L46</f>
         <v>0.90874200468859301</v>
       </c>
-      <c r="L12" s="78">
+      <c r="L12" s="76">
         <f>exio_usa!M46</f>
         <v>0.98460249995958704</v>
       </c>
-      <c r="M12" s="78">
+      <c r="M12" s="76">
         <f>exio_usa!N46</f>
         <v>0.98460249995958704</v>
       </c>
-      <c r="N12" s="78">
+      <c r="N12" s="76">
         <f>exio_usa!O46</f>
         <v>0.98460249995958704</v>
       </c>
-      <c r="O12" s="78">
+      <c r="O12" s="76">
         <f>exio_usa!P46</f>
         <v>0</v>
       </c>
-      <c r="P12" s="78">
+      <c r="P12" s="76">
         <f>exio_usa!Q46</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="78">
+      <c r="Q12" s="76">
         <f>exio_usa!R46</f>
         <v>0</v>
       </c>
-      <c r="R12" s="78">
+      <c r="R12" s="76">
         <f>exio_usa!S46</f>
         <v>0</v>
       </c>
-      <c r="S12" s="78">
+      <c r="S12" s="76">
         <f>exio_usa!T46</f>
         <v>0</v>
       </c>
-      <c r="T12" s="78">
+      <c r="T12" s="76">
         <f>exio_usa!U46</f>
         <v>0</v>
       </c>
@@ -45458,79 +45455,79 @@
         <f>exio_usa!B47</f>
         <v>331411</v>
       </c>
-      <c r="B13" s="78" t="str">
+      <c r="B13" s="76" t="str">
         <f>exio_usa!C47</f>
         <v>Primary smelting and refining of copper</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="76">
         <f>exio_usa!D47</f>
         <v>1</v>
       </c>
-      <c r="D13" s="78">
+      <c r="D13" s="76">
         <f>exio_usa!E47</f>
         <v>1</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="76">
         <f>exio_usa!F47</f>
         <v>1</v>
       </c>
-      <c r="F13" s="78">
+      <c r="F13" s="76">
         <f>exio_usa!G47</f>
         <v>1</v>
       </c>
-      <c r="G13" s="78">
+      <c r="G13" s="76">
         <f>exio_usa!H47</f>
         <v>1</v>
       </c>
-      <c r="H13" s="78">
+      <c r="H13" s="76">
         <f>exio_usa!I47</f>
         <v>1</v>
       </c>
-      <c r="I13" s="78">
+      <c r="I13" s="76">
         <f>exio_usa!J47</f>
         <v>0.99959212142745102</v>
       </c>
-      <c r="J13" s="78">
+      <c r="J13" s="76">
         <f>exio_usa!K47</f>
         <v>1</v>
       </c>
-      <c r="K13" s="78">
+      <c r="K13" s="76">
         <f>exio_usa!L47</f>
         <v>1</v>
       </c>
-      <c r="L13" s="78">
+      <c r="L13" s="76">
         <f>exio_usa!M47</f>
         <v>0.99517688048449904</v>
       </c>
-      <c r="M13" s="78">
+      <c r="M13" s="76">
         <f>exio_usa!N47</f>
         <v>0.99517688048449904</v>
       </c>
-      <c r="N13" s="78">
+      <c r="N13" s="76">
         <f>exio_usa!O47</f>
         <v>0.99517688048449904</v>
       </c>
-      <c r="O13" s="78">
+      <c r="O13" s="76">
         <f>exio_usa!P47</f>
         <v>0</v>
       </c>
-      <c r="P13" s="78">
+      <c r="P13" s="76">
         <f>exio_usa!Q47</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="78">
+      <c r="Q13" s="76">
         <f>exio_usa!R47</f>
         <v>0</v>
       </c>
-      <c r="R13" s="78">
+      <c r="R13" s="76">
         <f>exio_usa!S47</f>
         <v>0</v>
       </c>
-      <c r="S13" s="78">
+      <c r="S13" s="76">
         <f>exio_usa!T47</f>
         <v>0</v>
       </c>
-      <c r="T13" s="78">
+      <c r="T13" s="76">
         <f>exio_usa!U47</f>
         <v>0</v>
       </c>
@@ -45540,79 +45537,79 @@
         <f>exio_usa!B48</f>
         <v>331420</v>
       </c>
-      <c r="B14" s="78" t="str">
+      <c r="B14" s="76" t="str">
         <f>exio_usa!C48</f>
         <v>Copper rolling, drawing, extruding and alloying</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C14" s="76">
         <f>exio_usa!D48</f>
         <v>1</v>
       </c>
-      <c r="D14" s="78">
+      <c r="D14" s="76">
         <f>exio_usa!E48</f>
         <v>1</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="76">
         <f>exio_usa!F48</f>
         <v>1</v>
       </c>
-      <c r="F14" s="78">
+      <c r="F14" s="76">
         <f>exio_usa!G48</f>
         <v>1</v>
       </c>
-      <c r="G14" s="78">
+      <c r="G14" s="76">
         <f>exio_usa!H48</f>
         <v>1</v>
       </c>
-      <c r="H14" s="78">
+      <c r="H14" s="76">
         <f>exio_usa!I48</f>
         <v>1</v>
       </c>
-      <c r="I14" s="78">
+      <c r="I14" s="76">
         <f>exio_usa!J48</f>
         <v>0.99959212142745102</v>
       </c>
-      <c r="J14" s="78">
+      <c r="J14" s="76">
         <f>exio_usa!K48</f>
         <v>1</v>
       </c>
-      <c r="K14" s="78">
+      <c r="K14" s="76">
         <f>exio_usa!L48</f>
         <v>1</v>
       </c>
-      <c r="L14" s="78">
+      <c r="L14" s="76">
         <f>exio_usa!M48</f>
         <v>0.99517688048449904</v>
       </c>
-      <c r="M14" s="78">
+      <c r="M14" s="76">
         <f>exio_usa!N48</f>
         <v>0.99517688048449904</v>
       </c>
-      <c r="N14" s="78">
+      <c r="N14" s="76">
         <f>exio_usa!O48</f>
         <v>0.99517688048449904</v>
       </c>
-      <c r="O14" s="78">
+      <c r="O14" s="76">
         <f>exio_usa!P48</f>
         <v>0</v>
       </c>
-      <c r="P14" s="78">
+      <c r="P14" s="76">
         <f>exio_usa!Q48</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="78">
+      <c r="Q14" s="76">
         <f>exio_usa!R48</f>
         <v>0</v>
       </c>
-      <c r="R14" s="78">
+      <c r="R14" s="76">
         <f>exio_usa!S48</f>
         <v>0</v>
       </c>
-      <c r="S14" s="78">
+      <c r="S14" s="76">
         <f>exio_usa!T48</f>
         <v>0</v>
       </c>
-      <c r="T14" s="78">
+      <c r="T14" s="76">
         <f>exio_usa!U48</f>
         <v>0</v>
       </c>
@@ -45622,79 +45619,79 @@
         <f>exio_usa!B49</f>
         <v>331490</v>
       </c>
-      <c r="B15" s="78" t="str">
+      <c r="B15" s="76" t="str">
         <f>exio_usa!C49</f>
         <v>Nonferrous metal (except copper and aluminum) rolling, drawing, extruding and alloying</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="76">
         <f>exio_usa!D49</f>
         <v>1</v>
       </c>
-      <c r="D15" s="78">
+      <c r="D15" s="76">
         <f>exio_usa!E49</f>
         <v>1</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E15" s="76">
         <f>exio_usa!F49</f>
         <v>1</v>
       </c>
-      <c r="F15" s="78">
+      <c r="F15" s="76">
         <f>exio_usa!G49</f>
         <v>1</v>
       </c>
-      <c r="G15" s="78">
+      <c r="G15" s="76">
         <f>exio_usa!H49</f>
         <v>1</v>
       </c>
-      <c r="H15" s="78">
+      <c r="H15" s="76">
         <f>exio_usa!I49</f>
         <v>0.99949496003205796</v>
       </c>
-      <c r="I15" s="78">
+      <c r="I15" s="76">
         <f>exio_usa!J49</f>
         <v>0.99996338425751496</v>
       </c>
-      <c r="J15" s="78">
+      <c r="J15" s="76">
         <f>exio_usa!K49</f>
         <v>0.99974574415004602</v>
       </c>
-      <c r="K15" s="78">
+      <c r="K15" s="76">
         <f>exio_usa!L49</f>
         <v>0.99996712399807097</v>
       </c>
-      <c r="L15" s="78">
+      <c r="L15" s="76">
         <f>exio_usa!M49</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="M15" s="78">
+      <c r="M15" s="76">
         <f>exio_usa!N49</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="N15" s="78">
+      <c r="N15" s="76">
         <f>exio_usa!O49</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="O15" s="78">
+      <c r="O15" s="76">
         <f>exio_usa!P49</f>
         <v>0</v>
       </c>
-      <c r="P15" s="78">
+      <c r="P15" s="76">
         <f>exio_usa!Q49</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="78">
+      <c r="Q15" s="76">
         <f>exio_usa!R49</f>
         <v>0</v>
       </c>
-      <c r="R15" s="78">
+      <c r="R15" s="76">
         <f>exio_usa!S49</f>
         <v>0</v>
       </c>
-      <c r="S15" s="78">
+      <c r="S15" s="76">
         <f>exio_usa!T49</f>
         <v>0</v>
       </c>
-      <c r="T15" s="78">
+      <c r="T15" s="76">
         <f>exio_usa!U49</f>
         <v>0</v>
       </c>
@@ -45704,79 +45701,79 @@
         <f>exio_usa!B50</f>
         <v>331510</v>
       </c>
-      <c r="B16" s="78" t="str">
+      <c r="B16" s="76" t="str">
         <f>exio_usa!C50</f>
         <v>Ferrous metal foundries</v>
       </c>
-      <c r="C16" s="78">
+      <c r="C16" s="76">
         <f>exio_usa!D50</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="76">
         <f>exio_usa!E50</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="76">
         <f>exio_usa!F50</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="76">
         <f>exio_usa!G50</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G16" s="78">
+      <c r="G16" s="76">
         <f>exio_usa!H50</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H16" s="78">
+      <c r="H16" s="76">
         <f>exio_usa!I50</f>
         <v>0.87138156437019998</v>
       </c>
-      <c r="I16" s="78">
+      <c r="I16" s="76">
         <f>exio_usa!J50</f>
         <v>0.86927271702207298</v>
       </c>
-      <c r="J16" s="78">
+      <c r="J16" s="76">
         <f>exio_usa!K50</f>
         <v>0.81809329894973004</v>
       </c>
-      <c r="K16" s="78">
+      <c r="K16" s="76">
         <f>exio_usa!L50</f>
         <v>0.89771421948548102</v>
       </c>
-      <c r="L16" s="78">
+      <c r="L16" s="76">
         <f>exio_usa!M50</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="M16" s="78">
+      <c r="M16" s="76">
         <f>exio_usa!N50</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N16" s="78">
+      <c r="N16" s="76">
         <f>exio_usa!O50</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O16" s="78">
+      <c r="O16" s="76">
         <f>exio_usa!P50</f>
         <v>0</v>
       </c>
-      <c r="P16" s="78">
+      <c r="P16" s="76">
         <f>exio_usa!Q50</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="78">
+      <c r="Q16" s="76">
         <f>exio_usa!R50</f>
         <v>0</v>
       </c>
-      <c r="R16" s="78">
+      <c r="R16" s="76">
         <f>exio_usa!S50</f>
         <v>0</v>
       </c>
-      <c r="S16" s="78">
+      <c r="S16" s="76">
         <f>exio_usa!T50</f>
         <v>0</v>
       </c>
-      <c r="T16" s="78">
+      <c r="T16" s="76">
         <f>exio_usa!U50</f>
         <v>0</v>
       </c>
@@ -45786,79 +45783,79 @@
         <f>exio_usa!B51</f>
         <v>331520</v>
       </c>
-      <c r="B17" s="78" t="str">
+      <c r="B17" s="76" t="str">
         <f>exio_usa!C51</f>
         <v>Nonferrous metal foundries</v>
       </c>
-      <c r="C17" s="78">
+      <c r="C17" s="76">
         <f>exio_usa!D51</f>
         <v>1</v>
       </c>
-      <c r="D17" s="78">
+      <c r="D17" s="76">
         <f>exio_usa!E51</f>
         <v>1</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="76">
         <f>exio_usa!F51</f>
         <v>1</v>
       </c>
-      <c r="F17" s="78">
+      <c r="F17" s="76">
         <f>exio_usa!G51</f>
         <v>1</v>
       </c>
-      <c r="G17" s="78">
+      <c r="G17" s="76">
         <f>exio_usa!H51</f>
         <v>1</v>
       </c>
-      <c r="H17" s="78">
+      <c r="H17" s="76">
         <f>exio_usa!I51</f>
         <v>0.99949496003205796</v>
       </c>
-      <c r="I17" s="78">
+      <c r="I17" s="76">
         <f>exio_usa!J51</f>
         <v>0.99996338425751496</v>
       </c>
-      <c r="J17" s="78">
+      <c r="J17" s="76">
         <f>exio_usa!K51</f>
         <v>0.99974574415004602</v>
       </c>
-      <c r="K17" s="78">
+      <c r="K17" s="76">
         <f>exio_usa!L51</f>
         <v>0.99996712399807097</v>
       </c>
-      <c r="L17" s="78">
+      <c r="L17" s="76">
         <f>exio_usa!M51</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="M17" s="78">
+      <c r="M17" s="76">
         <f>exio_usa!N51</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="N17" s="78">
+      <c r="N17" s="76">
         <f>exio_usa!O51</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="O17" s="78">
+      <c r="O17" s="76">
         <f>exio_usa!P51</f>
         <v>0</v>
       </c>
-      <c r="P17" s="78">
+      <c r="P17" s="76">
         <f>exio_usa!Q51</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="78">
+      <c r="Q17" s="76">
         <f>exio_usa!R51</f>
         <v>0</v>
       </c>
-      <c r="R17" s="78">
+      <c r="R17" s="76">
         <f>exio_usa!S51</f>
         <v>0</v>
       </c>
-      <c r="S17" s="78">
+      <c r="S17" s="76">
         <f>exio_usa!T51</f>
         <v>0</v>
       </c>
-      <c r="T17" s="78">
+      <c r="T17" s="76">
         <f>exio_usa!U51</f>
         <v>0</v>
       </c>
@@ -45868,79 +45865,79 @@
         <f>exio_usa!B52</f>
         <v>332114</v>
       </c>
-      <c r="B18" s="78" t="str">
+      <c r="B18" s="76" t="str">
         <f>exio_usa!C52</f>
         <v>Custom roll forming</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="76">
         <f>exio_usa!D52</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="D18" s="78">
+      <c r="D18" s="76">
         <f>exio_usa!E52</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="76">
         <f>exio_usa!F52</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F18" s="76">
         <f>exio_usa!G52</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G18" s="78">
+      <c r="G18" s="76">
         <f>exio_usa!H52</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H18" s="78">
+      <c r="H18" s="76">
         <f>exio_usa!I52</f>
         <v>0.87138156437019998</v>
       </c>
-      <c r="I18" s="78">
+      <c r="I18" s="76">
         <f>exio_usa!J52</f>
         <v>0.86927271702207298</v>
       </c>
-      <c r="J18" s="78">
+      <c r="J18" s="76">
         <f>exio_usa!K52</f>
         <v>0.81809329894973004</v>
       </c>
-      <c r="K18" s="78">
+      <c r="K18" s="76">
         <f>exio_usa!L52</f>
         <v>0.89771421948548102</v>
       </c>
-      <c r="L18" s="78">
+      <c r="L18" s="76">
         <f>exio_usa!M52</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="M18" s="78">
+      <c r="M18" s="76">
         <f>exio_usa!N52</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N18" s="78">
+      <c r="N18" s="76">
         <f>exio_usa!O52</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O18" s="78">
+      <c r="O18" s="76">
         <f>exio_usa!P52</f>
         <v>0</v>
       </c>
-      <c r="P18" s="78">
+      <c r="P18" s="76">
         <f>exio_usa!Q52</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="78">
+      <c r="Q18" s="76">
         <f>exio_usa!R52</f>
         <v>0</v>
       </c>
-      <c r="R18" s="78">
+      <c r="R18" s="76">
         <f>exio_usa!S52</f>
         <v>0</v>
       </c>
-      <c r="S18" s="78">
+      <c r="S18" s="76">
         <f>exio_usa!T52</f>
         <v>0</v>
       </c>
-      <c r="T18" s="78">
+      <c r="T18" s="76">
         <f>exio_usa!U52</f>
         <v>0</v>
       </c>
@@ -45950,79 +45947,79 @@
         <f>exio_usa!B53</f>
         <v>33211A</v>
       </c>
-      <c r="B19" s="78" t="str">
+      <c r="B19" s="76" t="str">
         <f>exio_usa!C53</f>
         <v>All other forging, stamping, and sintering</v>
       </c>
-      <c r="C19" s="78">
+      <c r="C19" s="76">
         <f>exio_usa!D53</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="D19" s="78">
+      <c r="D19" s="76">
         <f>exio_usa!E53</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E19" s="78">
+      <c r="E19" s="76">
         <f>exio_usa!F53</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F19" s="76">
         <f>exio_usa!G53</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G19" s="78">
+      <c r="G19" s="76">
         <f>exio_usa!H53</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H19" s="78">
+      <c r="H19" s="76">
         <f>exio_usa!I53</f>
         <v>0.87138156437019998</v>
       </c>
-      <c r="I19" s="78">
+      <c r="I19" s="76">
         <f>exio_usa!J53</f>
         <v>0.86927271702207298</v>
       </c>
-      <c r="J19" s="78">
+      <c r="J19" s="76">
         <f>exio_usa!K53</f>
         <v>0.81809329894973004</v>
       </c>
-      <c r="K19" s="78">
+      <c r="K19" s="76">
         <f>exio_usa!L53</f>
         <v>0.89771421948548102</v>
       </c>
-      <c r="L19" s="78">
+      <c r="L19" s="76">
         <f>exio_usa!M53</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="M19" s="78">
+      <c r="M19" s="76">
         <f>exio_usa!N53</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N19" s="78">
+      <c r="N19" s="76">
         <f>exio_usa!O53</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O19" s="78">
+      <c r="O19" s="76">
         <f>exio_usa!P53</f>
         <v>0</v>
       </c>
-      <c r="P19" s="78">
+      <c r="P19" s="76">
         <f>exio_usa!Q53</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="78">
+      <c r="Q19" s="76">
         <f>exio_usa!R53</f>
         <v>0</v>
       </c>
-      <c r="R19" s="78">
+      <c r="R19" s="76">
         <f>exio_usa!S53</f>
         <v>0</v>
       </c>
-      <c r="S19" s="78">
+      <c r="S19" s="76">
         <f>exio_usa!T53</f>
         <v>0</v>
       </c>
-      <c r="T19" s="78">
+      <c r="T19" s="76">
         <f>exio_usa!U53</f>
         <v>0</v>
       </c>
@@ -46032,79 +46029,79 @@
         <f>exio_usa!B54</f>
         <v>33211B</v>
       </c>
-      <c r="B20" s="78" t="str">
+      <c r="B20" s="76" t="str">
         <f>exio_usa!C54</f>
         <v>Crown and closure manufacturing and metal stamping</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="76">
         <f>exio_usa!D54</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="D20" s="78">
+      <c r="D20" s="76">
         <f>exio_usa!E54</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="76">
         <f>exio_usa!F54</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F20" s="78">
+      <c r="F20" s="76">
         <f>exio_usa!G54</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G20" s="78">
+      <c r="G20" s="76">
         <f>exio_usa!H54</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H20" s="78">
+      <c r="H20" s="76">
         <f>exio_usa!I54</f>
         <v>0.87138156437019998</v>
       </c>
-      <c r="I20" s="78">
+      <c r="I20" s="76">
         <f>exio_usa!J54</f>
         <v>0.86927271702207298</v>
       </c>
-      <c r="J20" s="78">
+      <c r="J20" s="76">
         <f>exio_usa!K54</f>
         <v>0.81809329894973004</v>
       </c>
-      <c r="K20" s="78">
+      <c r="K20" s="76">
         <f>exio_usa!L54</f>
         <v>0.89771421948548102</v>
       </c>
-      <c r="L20" s="78">
+      <c r="L20" s="76">
         <f>exio_usa!M54</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="M20" s="78">
+      <c r="M20" s="76">
         <f>exio_usa!N54</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N20" s="78">
+      <c r="N20" s="76">
         <f>exio_usa!O54</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O20" s="78">
+      <c r="O20" s="76">
         <f>exio_usa!P54</f>
         <v>0</v>
       </c>
-      <c r="P20" s="78">
+      <c r="P20" s="76">
         <f>exio_usa!Q54</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="78">
+      <c r="Q20" s="76">
         <f>exio_usa!R54</f>
         <v>0</v>
       </c>
-      <c r="R20" s="78">
+      <c r="R20" s="76">
         <f>exio_usa!S54</f>
         <v>0</v>
       </c>
-      <c r="S20" s="78">
+      <c r="S20" s="76">
         <f>exio_usa!T54</f>
         <v>0</v>
       </c>
-      <c r="T20" s="78">
+      <c r="T20" s="76">
         <f>exio_usa!U54</f>
         <v>0</v>
       </c>
@@ -46114,79 +46111,79 @@
         <f>exio_usa!B55</f>
         <v>325211+325212</v>
       </c>
-      <c r="B21" s="78" t="str">
+      <c r="B21" s="76" t="str">
         <f>exio_usa!C55</f>
         <v>Plastics material and resin manufacturing+Synthetic rubber manufacturing</v>
       </c>
-      <c r="C21" s="78">
+      <c r="C21" s="76">
         <f>exio_usa!D55</f>
         <v>0</v>
       </c>
-      <c r="D21" s="78">
+      <c r="D21" s="76">
         <f>exio_usa!E55</f>
         <v>0</v>
       </c>
-      <c r="E21" s="78">
+      <c r="E21" s="76">
         <f>exio_usa!F55</f>
         <v>0</v>
       </c>
-      <c r="F21" s="78">
+      <c r="F21" s="76">
         <f>exio_usa!G55</f>
         <v>0</v>
       </c>
-      <c r="G21" s="78">
+      <c r="G21" s="76">
         <f>exio_usa!H55</f>
         <v>0</v>
       </c>
-      <c r="H21" s="78">
+      <c r="H21" s="76">
         <f>exio_usa!I55</f>
         <v>0.8</v>
       </c>
-      <c r="I21" s="78">
+      <c r="I21" s="76">
         <f>exio_usa!J55</f>
         <v>0.8</v>
       </c>
-      <c r="J21" s="78">
+      <c r="J21" s="76">
         <f>exio_usa!K55</f>
         <v>0.8</v>
       </c>
-      <c r="K21" s="78">
+      <c r="K21" s="76">
         <f>exio_usa!L55</f>
         <v>0.8</v>
       </c>
-      <c r="L21" s="78">
+      <c r="L21" s="76">
         <f>exio_usa!M55</f>
         <v>0.7</v>
       </c>
-      <c r="M21" s="78">
+      <c r="M21" s="76">
         <f>exio_usa!N55</f>
         <v>0.7</v>
       </c>
-      <c r="N21" s="78">
+      <c r="N21" s="76">
         <f>exio_usa!O55</f>
         <v>0.7</v>
       </c>
-      <c r="O21" s="78">
+      <c r="O21" s="76">
         <f>exio_usa!P55</f>
         <v>0</v>
       </c>
-      <c r="P21" s="78">
+      <c r="P21" s="76">
         <f>exio_usa!Q55</f>
         <v>0.85</v>
       </c>
-      <c r="Q21" s="78">
+      <c r="Q21" s="76">
         <f>exio_usa!R55</f>
         <v>0</v>
       </c>
-      <c r="R21" s="78">
+      <c r="R21" s="76">
         <f>exio_usa!S55</f>
         <v>0</v>
       </c>
-      <c r="S21" s="78">
+      <c r="S21" s="76">
         <f>exio_usa!T55</f>
         <v>0</v>
       </c>
-      <c r="T21" s="78">
+      <c r="T21" s="76">
         <f>exio_usa!U55</f>
         <v>0</v>
       </c>
